--- a/database/voceros.xlsx
+++ b/database/voceros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\YanguasEjercicios\senapre\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E13C8-BF41-4512-B434-CDF9AA29A264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA3328-1BDA-42F2-97B3-0E0ADE566340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VOCEROS JORNADA DIURNA " sheetId="2" r:id="rId1"/>
@@ -1067,9 +1067,6 @@
     <t>EDER BREIMAN OSPINA CARRILLO</t>
   </si>
   <si>
-    <t>ederbreiman@gma.com</t>
-  </si>
-  <si>
     <t>CONSTRUCCIÓN DE EDIFICACIONES WASAPT INSTRUCTOR</t>
   </si>
   <si>
@@ -1314,6 +1311,9 @@
   </si>
   <si>
     <t>GENARO RUIZ</t>
+  </si>
+  <si>
+    <t>ederbreiman@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,13 +1418,6 @@
       <sz val="11"/>
       <color theme="4"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1904,9 +1897,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1996,39 +1986,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2070,7 +2027,7 @@
     <xf numFmtId="14" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2091,12 +2048,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2124,6 +2075,48 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2667,6 +2660,67 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="image2.gif" descr="Agregar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042CF4A1-F21C-4E1C-2401-4609815040C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="297180" y="0"/>
+          <a:ext cx="182880" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3840,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC979"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -3862,16 +3916,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A1" s="107"/>
-      <c r="B1" s="107" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
@@ -3895,14 +3949,14 @@
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -3926,40 +3980,40 @@
       <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29" s="16" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="79" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="17"/>
@@ -4298,7 +4352,7 @@
       <c r="D11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="94">
         <v>3115069084</v>
       </c>
       <c r="F11" s="20" t="s">
@@ -4517,122 +4571,122 @@
       </c>
       <c r="M16" s="54"/>
     </row>
-    <row r="17" spans="1:13" s="115" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A17" s="110">
+    <row r="17" spans="1:13" s="103" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A17" s="98">
         <v>3389756</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="100">
         <v>17653772</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="98">
         <v>3133943803</v>
       </c>
-      <c r="F17" s="110" t="s">
+      <c r="F17" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="110">
+      <c r="J17" s="98">
         <v>1138924034</v>
       </c>
-      <c r="K17" s="113" t="s">
+      <c r="K17" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="110">
+      <c r="L17" s="98">
         <v>3160415524</v>
       </c>
-      <c r="M17" s="114"/>
-    </row>
-    <row r="18" spans="1:13" s="115" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="110">
+      <c r="M17" s="102"/>
+    </row>
+    <row r="18" spans="1:13" s="103" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="98">
         <v>3407730</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="100">
         <v>1117498013</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="98">
         <v>3026715770</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="110" t="s">
+      <c r="G18" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="116">
+      <c r="H18" s="104">
         <v>46670</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="110">
+      <c r="J18" s="98">
         <v>1117966964</v>
       </c>
-      <c r="K18" s="113" t="s">
+      <c r="K18" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="98">
         <v>3222838068</v>
       </c>
-      <c r="M18" s="114"/>
-    </row>
-    <row r="19" spans="1:13" s="115" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A19" s="117">
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:13" s="103" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A19" s="105">
         <v>3407847</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="107">
         <v>1007443580</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="117">
+      <c r="E19" s="105">
         <v>3112898176</v>
       </c>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="117" t="s">
+      <c r="G19" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="109">
         <v>46666</v>
       </c>
-      <c r="I19" s="117" t="s">
+      <c r="I19" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="117">
+      <c r="J19" s="105">
         <v>1118366707</v>
       </c>
-      <c r="K19" s="120" t="s">
+      <c r="K19" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="117">
+      <c r="L19" s="105">
         <v>3229341861</v>
       </c>
-      <c r="M19" s="114"/>
+      <c r="M19" s="102"/>
     </row>
     <row r="20" spans="1:13" ht="25.5" customHeight="1">
       <c r="A20" s="11"/>
@@ -13320,7 +13374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CT979"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -13347,22 +13401,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="16" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
@@ -13449,129 +13503,129 @@
       <c r="CT1" s="18"/>
     </row>
     <row r="2" spans="1:98" s="16" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="94"/>
-      <c r="BB2" s="94"/>
-      <c r="BC2" s="94"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="94"/>
-      <c r="BI2" s="94"/>
-      <c r="BJ2" s="94"/>
-      <c r="BK2" s="94"/>
-      <c r="BL2" s="94"/>
-      <c r="BM2" s="94"/>
-      <c r="BN2" s="94"/>
-      <c r="BO2" s="94"/>
-      <c r="BP2" s="94"/>
-      <c r="BQ2" s="94"/>
-      <c r="BR2" s="94"/>
-      <c r="BS2" s="94"/>
-      <c r="BT2" s="94"/>
-      <c r="BU2" s="94"/>
-      <c r="BV2" s="94"/>
-      <c r="BW2" s="94"/>
-      <c r="BX2" s="94"/>
-      <c r="BY2" s="94"/>
-      <c r="BZ2" s="94"/>
-      <c r="CA2" s="94"/>
-      <c r="CB2" s="94"/>
-      <c r="CC2" s="94"/>
-      <c r="CD2" s="94"/>
-      <c r="CE2" s="94"/>
-      <c r="CF2" s="94"/>
-      <c r="CG2" s="94"/>
-      <c r="CH2" s="94"/>
-      <c r="CI2" s="94"/>
-      <c r="CJ2" s="94"/>
-      <c r="CK2" s="94"/>
-      <c r="CL2" s="94"/>
-      <c r="CM2" s="94"/>
-      <c r="CN2" s="94"/>
-      <c r="CO2" s="94"/>
-      <c r="CP2" s="94"/>
-      <c r="CQ2" s="94"/>
-      <c r="CR2" s="94"/>
-      <c r="CS2" s="94"/>
-      <c r="CT2" s="94"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="93"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="93"/>
+      <c r="BN2" s="93"/>
+      <c r="BO2" s="93"/>
+      <c r="BP2" s="93"/>
+      <c r="BQ2" s="93"/>
+      <c r="BR2" s="93"/>
+      <c r="BS2" s="93"/>
+      <c r="BT2" s="93"/>
+      <c r="BU2" s="93"/>
+      <c r="BV2" s="93"/>
+      <c r="BW2" s="93"/>
+      <c r="BX2" s="93"/>
+      <c r="BY2" s="93"/>
+      <c r="BZ2" s="93"/>
+      <c r="CA2" s="93"/>
+      <c r="CB2" s="93"/>
+      <c r="CC2" s="93"/>
+      <c r="CD2" s="93"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="93"/>
+      <c r="CG2" s="93"/>
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
+      <c r="CJ2" s="93"/>
+      <c r="CK2" s="93"/>
+      <c r="CL2" s="93"/>
+      <c r="CM2" s="93"/>
+      <c r="CN2" s="93"/>
+      <c r="CO2" s="93"/>
+      <c r="CP2" s="93"/>
+      <c r="CQ2" s="93"/>
+      <c r="CR2" s="93"/>
+      <c r="CS2" s="93"/>
+      <c r="CT2" s="93"/>
     </row>
     <row r="3" spans="1:98" ht="30" customHeight="1">
       <c r="A3" s="39">
@@ -13583,7 +13637,7 @@
       <c r="C3" s="37">
         <v>1077843738</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="39">
@@ -13598,7 +13652,7 @@
       <c r="I3" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="81" t="s">
         <v>115</v>
       </c>
       <c r="K3" s="39" t="s">
@@ -13607,7 +13661,7 @@
       <c r="L3" s="39">
         <v>1006508434</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="82" t="s">
         <v>117</v>
       </c>
       <c r="N3" s="39">
@@ -13629,74 +13683,74 @@
       <c r="AB3" s="40"/>
       <c r="AC3" s="40"/>
       <c r="AD3" s="40"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="84"/>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="84"/>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="84"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="84"/>
-      <c r="BR3" s="84"/>
-      <c r="BS3" s="84"/>
-      <c r="BT3" s="84"/>
-      <c r="BU3" s="84"/>
-      <c r="BV3" s="84"/>
-      <c r="BW3" s="84"/>
-      <c r="BX3" s="84"/>
-      <c r="BY3" s="84"/>
-      <c r="BZ3" s="84"/>
-      <c r="CA3" s="84"/>
-      <c r="CB3" s="84"/>
-      <c r="CC3" s="84"/>
-      <c r="CD3" s="84"/>
-      <c r="CE3" s="84"/>
-      <c r="CF3" s="84"/>
-      <c r="CG3" s="84"/>
-      <c r="CH3" s="84"/>
-      <c r="CI3" s="84"/>
-      <c r="CJ3" s="84"/>
-      <c r="CK3" s="84"/>
-      <c r="CL3" s="84"/>
-      <c r="CM3" s="84"/>
-      <c r="CN3" s="84"/>
-      <c r="CO3" s="84"/>
-      <c r="CP3" s="84"/>
-      <c r="CQ3" s="84"/>
-      <c r="CR3" s="84"/>
-      <c r="CS3" s="84"/>
-      <c r="CT3" s="84"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
+      <c r="BS3" s="83"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="83"/>
+      <c r="BV3" s="83"/>
+      <c r="BW3" s="83"/>
+      <c r="BX3" s="83"/>
+      <c r="BY3" s="83"/>
+      <c r="BZ3" s="83"/>
+      <c r="CA3" s="83"/>
+      <c r="CB3" s="83"/>
+      <c r="CC3" s="83"/>
+      <c r="CD3" s="83"/>
+      <c r="CE3" s="83"/>
+      <c r="CF3" s="83"/>
+      <c r="CG3" s="83"/>
+      <c r="CH3" s="83"/>
+      <c r="CI3" s="83"/>
+      <c r="CJ3" s="83"/>
+      <c r="CK3" s="83"/>
+      <c r="CL3" s="83"/>
+      <c r="CM3" s="83"/>
+      <c r="CN3" s="83"/>
+      <c r="CO3" s="83"/>
+      <c r="CP3" s="83"/>
+      <c r="CQ3" s="83"/>
+      <c r="CR3" s="83"/>
+      <c r="CS3" s="83"/>
+      <c r="CT3" s="83"/>
     </row>
     <row r="4" spans="1:98" ht="30" customHeight="1">
       <c r="A4" s="39">
@@ -13708,7 +13762,7 @@
       <c r="C4" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="82" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="39">
@@ -13723,7 +13777,7 @@
       <c r="I4" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="82">
+      <c r="J4" s="81">
         <v>46306</v>
       </c>
       <c r="K4" s="39" t="s">
@@ -13732,7 +13786,7 @@
       <c r="L4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="82" t="s">
         <v>124</v>
       </c>
       <c r="N4" s="39">
@@ -13754,74 +13808,74 @@
       <c r="AB4" s="40"/>
       <c r="AC4" s="40"/>
       <c r="AD4" s="40"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="84"/>
-      <c r="BM4" s="84"/>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="84"/>
-      <c r="BR4" s="84"/>
-      <c r="BS4" s="84"/>
-      <c r="BT4" s="84"/>
-      <c r="BU4" s="84"/>
-      <c r="BV4" s="84"/>
-      <c r="BW4" s="84"/>
-      <c r="BX4" s="84"/>
-      <c r="BY4" s="84"/>
-      <c r="BZ4" s="84"/>
-      <c r="CA4" s="84"/>
-      <c r="CB4" s="84"/>
-      <c r="CC4" s="84"/>
-      <c r="CD4" s="84"/>
-      <c r="CE4" s="84"/>
-      <c r="CF4" s="84"/>
-      <c r="CG4" s="84"/>
-      <c r="CH4" s="84"/>
-      <c r="CI4" s="84"/>
-      <c r="CJ4" s="84"/>
-      <c r="CK4" s="84"/>
-      <c r="CL4" s="84"/>
-      <c r="CM4" s="84"/>
-      <c r="CN4" s="84"/>
-      <c r="CO4" s="84"/>
-      <c r="CP4" s="84"/>
-      <c r="CQ4" s="84"/>
-      <c r="CR4" s="84"/>
-      <c r="CS4" s="84"/>
-      <c r="CT4" s="84"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="83"/>
+      <c r="BS4" s="83"/>
+      <c r="BT4" s="83"/>
+      <c r="BU4" s="83"/>
+      <c r="BV4" s="83"/>
+      <c r="BW4" s="83"/>
+      <c r="BX4" s="83"/>
+      <c r="BY4" s="83"/>
+      <c r="BZ4" s="83"/>
+      <c r="CA4" s="83"/>
+      <c r="CB4" s="83"/>
+      <c r="CC4" s="83"/>
+      <c r="CD4" s="83"/>
+      <c r="CE4" s="83"/>
+      <c r="CF4" s="83"/>
+      <c r="CG4" s="83"/>
+      <c r="CH4" s="83"/>
+      <c r="CI4" s="83"/>
+      <c r="CJ4" s="83"/>
+      <c r="CK4" s="83"/>
+      <c r="CL4" s="83"/>
+      <c r="CM4" s="83"/>
+      <c r="CN4" s="83"/>
+      <c r="CO4" s="83"/>
+      <c r="CP4" s="83"/>
+      <c r="CQ4" s="83"/>
+      <c r="CR4" s="83"/>
+      <c r="CS4" s="83"/>
+      <c r="CT4" s="83"/>
     </row>
     <row r="5" spans="1:98" ht="39" customHeight="1">
       <c r="A5" s="39">
@@ -13833,7 +13887,7 @@
       <c r="C5" s="39">
         <v>1137624230</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="97" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="39" t="s">
@@ -13848,7 +13902,7 @@
       <c r="I5" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="84">
         <v>46163</v>
       </c>
       <c r="K5" s="39" t="s">
@@ -13857,96 +13911,96 @@
       <c r="L5" s="39">
         <v>1117506974</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="82" t="s">
         <v>130</v>
       </c>
       <c r="N5" s="39">
         <v>3209986153</v>
       </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="87"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="87"/>
-      <c r="BM5" s="87"/>
-      <c r="BN5" s="87"/>
-      <c r="BO5" s="87"/>
-      <c r="BP5" s="87"/>
-      <c r="BQ5" s="87"/>
-      <c r="BR5" s="87"/>
-      <c r="BS5" s="87"/>
-      <c r="BT5" s="87"/>
-      <c r="BU5" s="87"/>
-      <c r="BV5" s="87"/>
-      <c r="BW5" s="87"/>
-      <c r="BX5" s="87"/>
-      <c r="BY5" s="87"/>
-      <c r="BZ5" s="87"/>
-      <c r="CA5" s="87"/>
-      <c r="CB5" s="87"/>
-      <c r="CC5" s="87"/>
-      <c r="CD5" s="87"/>
-      <c r="CE5" s="87"/>
-      <c r="CF5" s="87"/>
-      <c r="CG5" s="87"/>
-      <c r="CH5" s="87"/>
-      <c r="CI5" s="87"/>
-      <c r="CJ5" s="87"/>
-      <c r="CK5" s="87"/>
-      <c r="CL5" s="87"/>
-      <c r="CM5" s="87"/>
-      <c r="CN5" s="87"/>
-      <c r="CO5" s="87"/>
-      <c r="CP5" s="87"/>
-      <c r="CQ5" s="87"/>
-      <c r="CR5" s="87"/>
-      <c r="CS5" s="87"/>
-      <c r="CT5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="86"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="86"/>
+      <c r="BD5" s="86"/>
+      <c r="BE5" s="86"/>
+      <c r="BF5" s="86"/>
+      <c r="BG5" s="86"/>
+      <c r="BH5" s="86"/>
+      <c r="BI5" s="86"/>
+      <c r="BJ5" s="86"/>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="86"/>
+      <c r="BM5" s="86"/>
+      <c r="BN5" s="86"/>
+      <c r="BO5" s="86"/>
+      <c r="BP5" s="86"/>
+      <c r="BQ5" s="86"/>
+      <c r="BR5" s="86"/>
+      <c r="BS5" s="86"/>
+      <c r="BT5" s="86"/>
+      <c r="BU5" s="86"/>
+      <c r="BV5" s="86"/>
+      <c r="BW5" s="86"/>
+      <c r="BX5" s="86"/>
+      <c r="BY5" s="86"/>
+      <c r="BZ5" s="86"/>
+      <c r="CA5" s="86"/>
+      <c r="CB5" s="86"/>
+      <c r="CC5" s="86"/>
+      <c r="CD5" s="86"/>
+      <c r="CE5" s="86"/>
+      <c r="CF5" s="86"/>
+      <c r="CG5" s="86"/>
+      <c r="CH5" s="86"/>
+      <c r="CI5" s="86"/>
+      <c r="CJ5" s="86"/>
+      <c r="CK5" s="86"/>
+      <c r="CL5" s="86"/>
+      <c r="CM5" s="86"/>
+      <c r="CN5" s="86"/>
+      <c r="CO5" s="86"/>
+      <c r="CP5" s="86"/>
+      <c r="CQ5" s="86"/>
+      <c r="CR5" s="86"/>
+      <c r="CS5" s="86"/>
+      <c r="CT5" s="86"/>
     </row>
     <row r="6" spans="1:98" ht="35.25" customHeight="1">
       <c r="A6" s="39">
@@ -13958,7 +14012,7 @@
       <c r="C6" s="39">
         <v>1117504320</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="82" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="39">
@@ -13982,7 +14036,7 @@
       <c r="L6" s="39">
         <v>1117500755</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="82" t="s">
         <v>136</v>
       </c>
       <c r="N6" s="39">
@@ -14004,74 +14058,74 @@
       <c r="AB6" s="40"/>
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="84"/>
-      <c r="BE6" s="84"/>
-      <c r="BF6" s="84"/>
-      <c r="BG6" s="84"/>
-      <c r="BH6" s="84"/>
-      <c r="BI6" s="84"/>
-      <c r="BJ6" s="84"/>
-      <c r="BK6" s="84"/>
-      <c r="BL6" s="84"/>
-      <c r="BM6" s="84"/>
-      <c r="BN6" s="84"/>
-      <c r="BO6" s="84"/>
-      <c r="BP6" s="84"/>
-      <c r="BQ6" s="84"/>
-      <c r="BR6" s="84"/>
-      <c r="BS6" s="84"/>
-      <c r="BT6" s="84"/>
-      <c r="BU6" s="84"/>
-      <c r="BV6" s="84"/>
-      <c r="BW6" s="84"/>
-      <c r="BX6" s="84"/>
-      <c r="BY6" s="84"/>
-      <c r="BZ6" s="84"/>
-      <c r="CA6" s="84"/>
-      <c r="CB6" s="84"/>
-      <c r="CC6" s="84"/>
-      <c r="CD6" s="84"/>
-      <c r="CE6" s="84"/>
-      <c r="CF6" s="84"/>
-      <c r="CG6" s="84"/>
-      <c r="CH6" s="84"/>
-      <c r="CI6" s="84"/>
-      <c r="CJ6" s="84"/>
-      <c r="CK6" s="84"/>
-      <c r="CL6" s="84"/>
-      <c r="CM6" s="84"/>
-      <c r="CN6" s="84"/>
-      <c r="CO6" s="84"/>
-      <c r="CP6" s="84"/>
-      <c r="CQ6" s="84"/>
-      <c r="CR6" s="84"/>
-      <c r="CS6" s="84"/>
-      <c r="CT6" s="84"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="83"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="83"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="83"/>
+      <c r="BF6" s="83"/>
+      <c r="BG6" s="83"/>
+      <c r="BH6" s="83"/>
+      <c r="BI6" s="83"/>
+      <c r="BJ6" s="83"/>
+      <c r="BK6" s="83"/>
+      <c r="BL6" s="83"/>
+      <c r="BM6" s="83"/>
+      <c r="BN6" s="83"/>
+      <c r="BO6" s="83"/>
+      <c r="BP6" s="83"/>
+      <c r="BQ6" s="83"/>
+      <c r="BR6" s="83"/>
+      <c r="BS6" s="83"/>
+      <c r="BT6" s="83"/>
+      <c r="BU6" s="83"/>
+      <c r="BV6" s="83"/>
+      <c r="BW6" s="83"/>
+      <c r="BX6" s="83"/>
+      <c r="BY6" s="83"/>
+      <c r="BZ6" s="83"/>
+      <c r="CA6" s="83"/>
+      <c r="CB6" s="83"/>
+      <c r="CC6" s="83"/>
+      <c r="CD6" s="83"/>
+      <c r="CE6" s="83"/>
+      <c r="CF6" s="83"/>
+      <c r="CG6" s="83"/>
+      <c r="CH6" s="83"/>
+      <c r="CI6" s="83"/>
+      <c r="CJ6" s="83"/>
+      <c r="CK6" s="83"/>
+      <c r="CL6" s="83"/>
+      <c r="CM6" s="83"/>
+      <c r="CN6" s="83"/>
+      <c r="CO6" s="83"/>
+      <c r="CP6" s="83"/>
+      <c r="CQ6" s="83"/>
+      <c r="CR6" s="83"/>
+      <c r="CS6" s="83"/>
+      <c r="CT6" s="83"/>
     </row>
     <row r="7" spans="1:98" ht="31.5" customHeight="1">
       <c r="A7" s="39">
@@ -14083,7 +14137,7 @@
       <c r="C7" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="82" t="s">
         <v>139</v>
       </c>
       <c r="E7" s="39">
@@ -14107,7 +14161,7 @@
       <c r="L7" s="39">
         <v>1117502068</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="82" t="s">
         <v>143</v>
       </c>
       <c r="N7" s="39">
@@ -14129,74 +14183,74 @@
       <c r="AB7" s="40"/>
       <c r="AC7" s="40"/>
       <c r="AD7" s="40"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="84"/>
-      <c r="BC7" s="84"/>
-      <c r="BD7" s="84"/>
-      <c r="BE7" s="84"/>
-      <c r="BF7" s="84"/>
-      <c r="BG7" s="84"/>
-      <c r="BH7" s="84"/>
-      <c r="BI7" s="84"/>
-      <c r="BJ7" s="84"/>
-      <c r="BK7" s="84"/>
-      <c r="BL7" s="84"/>
-      <c r="BM7" s="84"/>
-      <c r="BN7" s="84"/>
-      <c r="BO7" s="84"/>
-      <c r="BP7" s="84"/>
-      <c r="BQ7" s="84"/>
-      <c r="BR7" s="84"/>
-      <c r="BS7" s="84"/>
-      <c r="BT7" s="84"/>
-      <c r="BU7" s="84"/>
-      <c r="BV7" s="84"/>
-      <c r="BW7" s="84"/>
-      <c r="BX7" s="84"/>
-      <c r="BY7" s="84"/>
-      <c r="BZ7" s="84"/>
-      <c r="CA7" s="84"/>
-      <c r="CB7" s="84"/>
-      <c r="CC7" s="84"/>
-      <c r="CD7" s="84"/>
-      <c r="CE7" s="84"/>
-      <c r="CF7" s="84"/>
-      <c r="CG7" s="84"/>
-      <c r="CH7" s="84"/>
-      <c r="CI7" s="84"/>
-      <c r="CJ7" s="84"/>
-      <c r="CK7" s="84"/>
-      <c r="CL7" s="84"/>
-      <c r="CM7" s="84"/>
-      <c r="CN7" s="84"/>
-      <c r="CO7" s="84"/>
-      <c r="CP7" s="84"/>
-      <c r="CQ7" s="84"/>
-      <c r="CR7" s="84"/>
-      <c r="CS7" s="84"/>
-      <c r="CT7" s="84"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="83"/>
+      <c r="BN7" s="83"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="83"/>
+      <c r="BS7" s="83"/>
+      <c r="BT7" s="83"/>
+      <c r="BU7" s="83"/>
+      <c r="BV7" s="83"/>
+      <c r="BW7" s="83"/>
+      <c r="BX7" s="83"/>
+      <c r="BY7" s="83"/>
+      <c r="BZ7" s="83"/>
+      <c r="CA7" s="83"/>
+      <c r="CB7" s="83"/>
+      <c r="CC7" s="83"/>
+      <c r="CD7" s="83"/>
+      <c r="CE7" s="83"/>
+      <c r="CF7" s="83"/>
+      <c r="CG7" s="83"/>
+      <c r="CH7" s="83"/>
+      <c r="CI7" s="83"/>
+      <c r="CJ7" s="83"/>
+      <c r="CK7" s="83"/>
+      <c r="CL7" s="83"/>
+      <c r="CM7" s="83"/>
+      <c r="CN7" s="83"/>
+      <c r="CO7" s="83"/>
+      <c r="CP7" s="83"/>
+      <c r="CQ7" s="83"/>
+      <c r="CR7" s="83"/>
+      <c r="CS7" s="83"/>
+      <c r="CT7" s="83"/>
     </row>
     <row r="8" spans="1:98" ht="24" customHeight="1">
       <c r="A8" s="39">
@@ -14208,7 +14262,7 @@
       <c r="C8" s="39">
         <v>1006503573</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="82" t="s">
         <v>145</v>
       </c>
       <c r="E8" s="39">
@@ -14232,7 +14286,7 @@
       <c r="L8" s="39">
         <v>1117487647</v>
       </c>
-      <c r="M8" s="83" t="s">
+      <c r="M8" s="82" t="s">
         <v>148</v>
       </c>
       <c r="N8" s="39">
@@ -14254,74 +14308,74 @@
       <c r="AB8" s="40"/>
       <c r="AC8" s="40"/>
       <c r="AD8" s="40"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="84"/>
-      <c r="BC8" s="84"/>
-      <c r="BD8" s="84"/>
-      <c r="BE8" s="84"/>
-      <c r="BF8" s="84"/>
-      <c r="BG8" s="84"/>
-      <c r="BH8" s="84"/>
-      <c r="BI8" s="84"/>
-      <c r="BJ8" s="84"/>
-      <c r="BK8" s="84"/>
-      <c r="BL8" s="84"/>
-      <c r="BM8" s="84"/>
-      <c r="BN8" s="84"/>
-      <c r="BO8" s="84"/>
-      <c r="BP8" s="84"/>
-      <c r="BQ8" s="84"/>
-      <c r="BR8" s="84"/>
-      <c r="BS8" s="84"/>
-      <c r="BT8" s="84"/>
-      <c r="BU8" s="84"/>
-      <c r="BV8" s="84"/>
-      <c r="BW8" s="84"/>
-      <c r="BX8" s="84"/>
-      <c r="BY8" s="84"/>
-      <c r="BZ8" s="84"/>
-      <c r="CA8" s="84"/>
-      <c r="CB8" s="84"/>
-      <c r="CC8" s="84"/>
-      <c r="CD8" s="84"/>
-      <c r="CE8" s="84"/>
-      <c r="CF8" s="84"/>
-      <c r="CG8" s="84"/>
-      <c r="CH8" s="84"/>
-      <c r="CI8" s="84"/>
-      <c r="CJ8" s="84"/>
-      <c r="CK8" s="84"/>
-      <c r="CL8" s="84"/>
-      <c r="CM8" s="84"/>
-      <c r="CN8" s="84"/>
-      <c r="CO8" s="84"/>
-      <c r="CP8" s="84"/>
-      <c r="CQ8" s="84"/>
-      <c r="CR8" s="84"/>
-      <c r="CS8" s="84"/>
-      <c r="CT8" s="84"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="83"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="83"/>
+      <c r="BG8" s="83"/>
+      <c r="BH8" s="83"/>
+      <c r="BI8" s="83"/>
+      <c r="BJ8" s="83"/>
+      <c r="BK8" s="83"/>
+      <c r="BL8" s="83"/>
+      <c r="BM8" s="83"/>
+      <c r="BN8" s="83"/>
+      <c r="BO8" s="83"/>
+      <c r="BP8" s="83"/>
+      <c r="BQ8" s="83"/>
+      <c r="BR8" s="83"/>
+      <c r="BS8" s="83"/>
+      <c r="BT8" s="83"/>
+      <c r="BU8" s="83"/>
+      <c r="BV8" s="83"/>
+      <c r="BW8" s="83"/>
+      <c r="BX8" s="83"/>
+      <c r="BY8" s="83"/>
+      <c r="BZ8" s="83"/>
+      <c r="CA8" s="83"/>
+      <c r="CB8" s="83"/>
+      <c r="CC8" s="83"/>
+      <c r="CD8" s="83"/>
+      <c r="CE8" s="83"/>
+      <c r="CF8" s="83"/>
+      <c r="CG8" s="83"/>
+      <c r="CH8" s="83"/>
+      <c r="CI8" s="83"/>
+      <c r="CJ8" s="83"/>
+      <c r="CK8" s="83"/>
+      <c r="CL8" s="83"/>
+      <c r="CM8" s="83"/>
+      <c r="CN8" s="83"/>
+      <c r="CO8" s="83"/>
+      <c r="CP8" s="83"/>
+      <c r="CQ8" s="83"/>
+      <c r="CR8" s="83"/>
+      <c r="CS8" s="83"/>
+      <c r="CT8" s="83"/>
     </row>
     <row r="9" spans="1:98" ht="25.5" customHeight="1">
       <c r="A9" s="39">
@@ -14333,7 +14387,7 @@
       <c r="C9" s="39">
         <v>1117496592</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="82" t="s">
         <v>150</v>
       </c>
       <c r="E9" s="39">
@@ -14357,7 +14411,7 @@
       <c r="L9" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="82" t="s">
         <v>153</v>
       </c>
       <c r="N9" s="39">
@@ -14379,74 +14433,74 @@
       <c r="AB9" s="40"/>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="84"/>
-      <c r="BE9" s="84"/>
-      <c r="BF9" s="84"/>
-      <c r="BG9" s="84"/>
-      <c r="BH9" s="84"/>
-      <c r="BI9" s="84"/>
-      <c r="BJ9" s="84"/>
-      <c r="BK9" s="84"/>
-      <c r="BL9" s="84"/>
-      <c r="BM9" s="84"/>
-      <c r="BN9" s="84"/>
-      <c r="BO9" s="84"/>
-      <c r="BP9" s="84"/>
-      <c r="BQ9" s="84"/>
-      <c r="BR9" s="84"/>
-      <c r="BS9" s="84"/>
-      <c r="BT9" s="84"/>
-      <c r="BU9" s="84"/>
-      <c r="BV9" s="84"/>
-      <c r="BW9" s="84"/>
-      <c r="BX9" s="84"/>
-      <c r="BY9" s="84"/>
-      <c r="BZ9" s="84"/>
-      <c r="CA9" s="84"/>
-      <c r="CB9" s="84"/>
-      <c r="CC9" s="84"/>
-      <c r="CD9" s="84"/>
-      <c r="CE9" s="84"/>
-      <c r="CF9" s="84"/>
-      <c r="CG9" s="84"/>
-      <c r="CH9" s="84"/>
-      <c r="CI9" s="84"/>
-      <c r="CJ9" s="84"/>
-      <c r="CK9" s="84"/>
-      <c r="CL9" s="84"/>
-      <c r="CM9" s="84"/>
-      <c r="CN9" s="84"/>
-      <c r="CO9" s="84"/>
-      <c r="CP9" s="84"/>
-      <c r="CQ9" s="84"/>
-      <c r="CR9" s="84"/>
-      <c r="CS9" s="84"/>
-      <c r="CT9" s="84"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="83"/>
+      <c r="BN9" s="83"/>
+      <c r="BO9" s="83"/>
+      <c r="BP9" s="83"/>
+      <c r="BQ9" s="83"/>
+      <c r="BR9" s="83"/>
+      <c r="BS9" s="83"/>
+      <c r="BT9" s="83"/>
+      <c r="BU9" s="83"/>
+      <c r="BV9" s="83"/>
+      <c r="BW9" s="83"/>
+      <c r="BX9" s="83"/>
+      <c r="BY9" s="83"/>
+      <c r="BZ9" s="83"/>
+      <c r="CA9" s="83"/>
+      <c r="CB9" s="83"/>
+      <c r="CC9" s="83"/>
+      <c r="CD9" s="83"/>
+      <c r="CE9" s="83"/>
+      <c r="CF9" s="83"/>
+      <c r="CG9" s="83"/>
+      <c r="CH9" s="83"/>
+      <c r="CI9" s="83"/>
+      <c r="CJ9" s="83"/>
+      <c r="CK9" s="83"/>
+      <c r="CL9" s="83"/>
+      <c r="CM9" s="83"/>
+      <c r="CN9" s="83"/>
+      <c r="CO9" s="83"/>
+      <c r="CP9" s="83"/>
+      <c r="CQ9" s="83"/>
+      <c r="CR9" s="83"/>
+      <c r="CS9" s="83"/>
+      <c r="CT9" s="83"/>
     </row>
     <row r="10" spans="1:98" ht="33" customHeight="1">
       <c r="A10" s="39">
@@ -14458,7 +14512,7 @@
       <c r="C10" s="39">
         <v>1075264036</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="87" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="39" t="s">
@@ -14502,74 +14556,74 @@
       <c r="AB10" s="40"/>
       <c r="AC10" s="40"/>
       <c r="AD10" s="40"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="84"/>
-      <c r="BG10" s="84"/>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="84"/>
-      <c r="BN10" s="84"/>
-      <c r="BO10" s="84"/>
-      <c r="BP10" s="84"/>
-      <c r="BQ10" s="84"/>
-      <c r="BR10" s="84"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="84"/>
-      <c r="BU10" s="84"/>
-      <c r="BV10" s="84"/>
-      <c r="BW10" s="84"/>
-      <c r="BX10" s="84"/>
-      <c r="BY10" s="84"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="84"/>
-      <c r="CB10" s="84"/>
-      <c r="CC10" s="84"/>
-      <c r="CD10" s="84"/>
-      <c r="CE10" s="84"/>
-      <c r="CF10" s="84"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="84"/>
-      <c r="CI10" s="84"/>
-      <c r="CJ10" s="84"/>
-      <c r="CK10" s="84"/>
-      <c r="CL10" s="84"/>
-      <c r="CM10" s="84"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="84"/>
-      <c r="CP10" s="84"/>
-      <c r="CQ10" s="84"/>
-      <c r="CR10" s="84"/>
-      <c r="CS10" s="84"/>
-      <c r="CT10" s="84"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="83"/>
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="83"/>
+      <c r="BJ10" s="83"/>
+      <c r="BK10" s="83"/>
+      <c r="BL10" s="83"/>
+      <c r="BM10" s="83"/>
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="83"/>
+      <c r="BP10" s="83"/>
+      <c r="BQ10" s="83"/>
+      <c r="BR10" s="83"/>
+      <c r="BS10" s="83"/>
+      <c r="BT10" s="83"/>
+      <c r="BU10" s="83"/>
+      <c r="BV10" s="83"/>
+      <c r="BW10" s="83"/>
+      <c r="BX10" s="83"/>
+      <c r="BY10" s="83"/>
+      <c r="BZ10" s="83"/>
+      <c r="CA10" s="83"/>
+      <c r="CB10" s="83"/>
+      <c r="CC10" s="83"/>
+      <c r="CD10" s="83"/>
+      <c r="CE10" s="83"/>
+      <c r="CF10" s="83"/>
+      <c r="CG10" s="83"/>
+      <c r="CH10" s="83"/>
+      <c r="CI10" s="83"/>
+      <c r="CJ10" s="83"/>
+      <c r="CK10" s="83"/>
+      <c r="CL10" s="83"/>
+      <c r="CM10" s="83"/>
+      <c r="CN10" s="83"/>
+      <c r="CO10" s="83"/>
+      <c r="CP10" s="83"/>
+      <c r="CQ10" s="83"/>
+      <c r="CR10" s="83"/>
+      <c r="CS10" s="83"/>
+      <c r="CT10" s="83"/>
     </row>
     <row r="11" spans="1:98" ht="25.5" customHeight="1">
       <c r="A11" s="39">
@@ -14581,7 +14635,7 @@
       <c r="C11" s="39">
         <v>1117264584</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="82" t="s">
         <v>163</v>
       </c>
       <c r="E11" s="39">
@@ -14605,7 +14659,7 @@
       <c r="L11" s="39">
         <v>1021679636</v>
       </c>
-      <c r="M11" s="109" t="s">
+      <c r="M11" s="97" t="s">
         <v>166</v>
       </c>
       <c r="N11" s="39">
@@ -14627,74 +14681,74 @@
       <c r="AB11" s="40"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="84"/>
-      <c r="BE11" s="84"/>
-      <c r="BF11" s="84"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="84"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="84"/>
-      <c r="BK11" s="84"/>
-      <c r="BL11" s="84"/>
-      <c r="BM11" s="84"/>
-      <c r="BN11" s="84"/>
-      <c r="BO11" s="84"/>
-      <c r="BP11" s="84"/>
-      <c r="BQ11" s="84"/>
-      <c r="BR11" s="84"/>
-      <c r="BS11" s="84"/>
-      <c r="BT11" s="84"/>
-      <c r="BU11" s="84"/>
-      <c r="BV11" s="84"/>
-      <c r="BW11" s="84"/>
-      <c r="BX11" s="84"/>
-      <c r="BY11" s="84"/>
-      <c r="BZ11" s="84"/>
-      <c r="CA11" s="84"/>
-      <c r="CB11" s="84"/>
-      <c r="CC11" s="84"/>
-      <c r="CD11" s="84"/>
-      <c r="CE11" s="84"/>
-      <c r="CF11" s="84"/>
-      <c r="CG11" s="84"/>
-      <c r="CH11" s="84"/>
-      <c r="CI11" s="84"/>
-      <c r="CJ11" s="84"/>
-      <c r="CK11" s="84"/>
-      <c r="CL11" s="84"/>
-      <c r="CM11" s="84"/>
-      <c r="CN11" s="84"/>
-      <c r="CO11" s="84"/>
-      <c r="CP11" s="84"/>
-      <c r="CQ11" s="84"/>
-      <c r="CR11" s="84"/>
-      <c r="CS11" s="84"/>
-      <c r="CT11" s="84"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="83"/>
+      <c r="BB11" s="83"/>
+      <c r="BC11" s="83"/>
+      <c r="BD11" s="83"/>
+      <c r="BE11" s="83"/>
+      <c r="BF11" s="83"/>
+      <c r="BG11" s="83"/>
+      <c r="BH11" s="83"/>
+      <c r="BI11" s="83"/>
+      <c r="BJ11" s="83"/>
+      <c r="BK11" s="83"/>
+      <c r="BL11" s="83"/>
+      <c r="BM11" s="83"/>
+      <c r="BN11" s="83"/>
+      <c r="BO11" s="83"/>
+      <c r="BP11" s="83"/>
+      <c r="BQ11" s="83"/>
+      <c r="BR11" s="83"/>
+      <c r="BS11" s="83"/>
+      <c r="BT11" s="83"/>
+      <c r="BU11" s="83"/>
+      <c r="BV11" s="83"/>
+      <c r="BW11" s="83"/>
+      <c r="BX11" s="83"/>
+      <c r="BY11" s="83"/>
+      <c r="BZ11" s="83"/>
+      <c r="CA11" s="83"/>
+      <c r="CB11" s="83"/>
+      <c r="CC11" s="83"/>
+      <c r="CD11" s="83"/>
+      <c r="CE11" s="83"/>
+      <c r="CF11" s="83"/>
+      <c r="CG11" s="83"/>
+      <c r="CH11" s="83"/>
+      <c r="CI11" s="83"/>
+      <c r="CJ11" s="83"/>
+      <c r="CK11" s="83"/>
+      <c r="CL11" s="83"/>
+      <c r="CM11" s="83"/>
+      <c r="CN11" s="83"/>
+      <c r="CO11" s="83"/>
+      <c r="CP11" s="83"/>
+      <c r="CQ11" s="83"/>
+      <c r="CR11" s="83"/>
+      <c r="CS11" s="83"/>
+      <c r="CT11" s="83"/>
     </row>
     <row r="12" spans="1:98" ht="21" customHeight="1">
       <c r="A12" s="39">
@@ -14706,7 +14760,7 @@
       <c r="C12" s="39">
         <v>1116204706</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="82" t="s">
         <v>168</v>
       </c>
       <c r="E12" s="39">
@@ -14721,15 +14775,15 @@
       <c r="I12" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="88">
         <v>45937</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="99"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="131"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
@@ -14746,74 +14800,74 @@
       <c r="AB12" s="40"/>
       <c r="AC12" s="40"/>
       <c r="AD12" s="40"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="84"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="84"/>
-      <c r="BK12" s="84"/>
-      <c r="BL12" s="84"/>
-      <c r="BM12" s="84"/>
-      <c r="BN12" s="84"/>
-      <c r="BO12" s="84"/>
-      <c r="BP12" s="84"/>
-      <c r="BQ12" s="84"/>
-      <c r="BR12" s="84"/>
-      <c r="BS12" s="84"/>
-      <c r="BT12" s="84"/>
-      <c r="BU12" s="84"/>
-      <c r="BV12" s="84"/>
-      <c r="BW12" s="84"/>
-      <c r="BX12" s="84"/>
-      <c r="BY12" s="84"/>
-      <c r="BZ12" s="84"/>
-      <c r="CA12" s="84"/>
-      <c r="CB12" s="84"/>
-      <c r="CC12" s="84"/>
-      <c r="CD12" s="84"/>
-      <c r="CE12" s="84"/>
-      <c r="CF12" s="84"/>
-      <c r="CG12" s="84"/>
-      <c r="CH12" s="84"/>
-      <c r="CI12" s="84"/>
-      <c r="CJ12" s="84"/>
-      <c r="CK12" s="84"/>
-      <c r="CL12" s="84"/>
-      <c r="CM12" s="84"/>
-      <c r="CN12" s="84"/>
-      <c r="CO12" s="84"/>
-      <c r="CP12" s="84"/>
-      <c r="CQ12" s="84"/>
-      <c r="CR12" s="84"/>
-      <c r="CS12" s="84"/>
-      <c r="CT12" s="84"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="83"/>
+      <c r="BC12" s="83"/>
+      <c r="BD12" s="83"/>
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="83"/>
+      <c r="BG12" s="83"/>
+      <c r="BH12" s="83"/>
+      <c r="BI12" s="83"/>
+      <c r="BJ12" s="83"/>
+      <c r="BK12" s="83"/>
+      <c r="BL12" s="83"/>
+      <c r="BM12" s="83"/>
+      <c r="BN12" s="83"/>
+      <c r="BO12" s="83"/>
+      <c r="BP12" s="83"/>
+      <c r="BQ12" s="83"/>
+      <c r="BR12" s="83"/>
+      <c r="BS12" s="83"/>
+      <c r="BT12" s="83"/>
+      <c r="BU12" s="83"/>
+      <c r="BV12" s="83"/>
+      <c r="BW12" s="83"/>
+      <c r="BX12" s="83"/>
+      <c r="BY12" s="83"/>
+      <c r="BZ12" s="83"/>
+      <c r="CA12" s="83"/>
+      <c r="CB12" s="83"/>
+      <c r="CC12" s="83"/>
+      <c r="CD12" s="83"/>
+      <c r="CE12" s="83"/>
+      <c r="CF12" s="83"/>
+      <c r="CG12" s="83"/>
+      <c r="CH12" s="83"/>
+      <c r="CI12" s="83"/>
+      <c r="CJ12" s="83"/>
+      <c r="CK12" s="83"/>
+      <c r="CL12" s="83"/>
+      <c r="CM12" s="83"/>
+      <c r="CN12" s="83"/>
+      <c r="CO12" s="83"/>
+      <c r="CP12" s="83"/>
+      <c r="CQ12" s="83"/>
+      <c r="CR12" s="83"/>
+      <c r="CS12" s="83"/>
+      <c r="CT12" s="83"/>
     </row>
     <row r="13" spans="1:98" ht="24.75" customHeight="1">
       <c r="A13" s="39">
@@ -14825,7 +14879,7 @@
       <c r="C13" s="39">
         <v>10065134433</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="82" t="s">
         <v>173</v>
       </c>
       <c r="E13" s="39">
@@ -14840,7 +14894,7 @@
       <c r="I13" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="88">
         <v>45666</v>
       </c>
       <c r="K13" s="39" t="s">
@@ -14849,7 +14903,7 @@
       <c r="L13" s="39">
         <v>1117233376</v>
       </c>
-      <c r="M13" s="83" t="s">
+      <c r="M13" s="82" t="s">
         <v>177</v>
       </c>
       <c r="N13" s="39">
@@ -14871,74 +14925,74 @@
       <c r="AB13" s="40"/>
       <c r="AC13" s="40"/>
       <c r="AD13" s="40"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="84"/>
-      <c r="BD13" s="84"/>
-      <c r="BE13" s="84"/>
-      <c r="BF13" s="84"/>
-      <c r="BG13" s="84"/>
-      <c r="BH13" s="84"/>
-      <c r="BI13" s="84"/>
-      <c r="BJ13" s="84"/>
-      <c r="BK13" s="84"/>
-      <c r="BL13" s="84"/>
-      <c r="BM13" s="84"/>
-      <c r="BN13" s="84"/>
-      <c r="BO13" s="84"/>
-      <c r="BP13" s="84"/>
-      <c r="BQ13" s="84"/>
-      <c r="BR13" s="84"/>
-      <c r="BS13" s="84"/>
-      <c r="BT13" s="84"/>
-      <c r="BU13" s="84"/>
-      <c r="BV13" s="84"/>
-      <c r="BW13" s="84"/>
-      <c r="BX13" s="84"/>
-      <c r="BY13" s="84"/>
-      <c r="BZ13" s="84"/>
-      <c r="CA13" s="84"/>
-      <c r="CB13" s="84"/>
-      <c r="CC13" s="84"/>
-      <c r="CD13" s="84"/>
-      <c r="CE13" s="84"/>
-      <c r="CF13" s="84"/>
-      <c r="CG13" s="84"/>
-      <c r="CH13" s="84"/>
-      <c r="CI13" s="84"/>
-      <c r="CJ13" s="84"/>
-      <c r="CK13" s="84"/>
-      <c r="CL13" s="84"/>
-      <c r="CM13" s="84"/>
-      <c r="CN13" s="84"/>
-      <c r="CO13" s="84"/>
-      <c r="CP13" s="84"/>
-      <c r="CQ13" s="84"/>
-      <c r="CR13" s="84"/>
-      <c r="CS13" s="84"/>
-      <c r="CT13" s="84"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="83"/>
+      <c r="BC13" s="83"/>
+      <c r="BD13" s="83"/>
+      <c r="BE13" s="83"/>
+      <c r="BF13" s="83"/>
+      <c r="BG13" s="83"/>
+      <c r="BH13" s="83"/>
+      <c r="BI13" s="83"/>
+      <c r="BJ13" s="83"/>
+      <c r="BK13" s="83"/>
+      <c r="BL13" s="83"/>
+      <c r="BM13" s="83"/>
+      <c r="BN13" s="83"/>
+      <c r="BO13" s="83"/>
+      <c r="BP13" s="83"/>
+      <c r="BQ13" s="83"/>
+      <c r="BR13" s="83"/>
+      <c r="BS13" s="83"/>
+      <c r="BT13" s="83"/>
+      <c r="BU13" s="83"/>
+      <c r="BV13" s="83"/>
+      <c r="BW13" s="83"/>
+      <c r="BX13" s="83"/>
+      <c r="BY13" s="83"/>
+      <c r="BZ13" s="83"/>
+      <c r="CA13" s="83"/>
+      <c r="CB13" s="83"/>
+      <c r="CC13" s="83"/>
+      <c r="CD13" s="83"/>
+      <c r="CE13" s="83"/>
+      <c r="CF13" s="83"/>
+      <c r="CG13" s="83"/>
+      <c r="CH13" s="83"/>
+      <c r="CI13" s="83"/>
+      <c r="CJ13" s="83"/>
+      <c r="CK13" s="83"/>
+      <c r="CL13" s="83"/>
+      <c r="CM13" s="83"/>
+      <c r="CN13" s="83"/>
+      <c r="CO13" s="83"/>
+      <c r="CP13" s="83"/>
+      <c r="CQ13" s="83"/>
+      <c r="CR13" s="83"/>
+      <c r="CS13" s="83"/>
+      <c r="CT13" s="83"/>
     </row>
     <row r="14" spans="1:98" ht="24" customHeight="1">
       <c r="A14" s="39">
@@ -14950,7 +15004,7 @@
       <c r="C14" s="39">
         <v>1117809615</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="82" t="s">
         <v>179</v>
       </c>
       <c r="E14" s="39">
@@ -14965,7 +15019,7 @@
       <c r="I14" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="88">
         <v>45666</v>
       </c>
       <c r="K14" s="39" t="s">
@@ -14974,7 +15028,7 @@
       <c r="L14" s="39">
         <v>1117498867</v>
       </c>
-      <c r="M14" s="83" t="s">
+      <c r="M14" s="82" t="s">
         <v>181</v>
       </c>
       <c r="N14" s="39">
@@ -14996,74 +15050,74 @@
       <c r="AB14" s="40"/>
       <c r="AC14" s="40"/>
       <c r="AD14" s="40"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="84"/>
-      <c r="BD14" s="84"/>
-      <c r="BE14" s="84"/>
-      <c r="BF14" s="84"/>
-      <c r="BG14" s="84"/>
-      <c r="BH14" s="84"/>
-      <c r="BI14" s="84"/>
-      <c r="BJ14" s="84"/>
-      <c r="BK14" s="84"/>
-      <c r="BL14" s="84"/>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="84"/>
-      <c r="BO14" s="84"/>
-      <c r="BP14" s="84"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="84"/>
-      <c r="BS14" s="84"/>
-      <c r="BT14" s="84"/>
-      <c r="BU14" s="84"/>
-      <c r="BV14" s="84"/>
-      <c r="BW14" s="84"/>
-      <c r="BX14" s="84"/>
-      <c r="BY14" s="84"/>
-      <c r="BZ14" s="84"/>
-      <c r="CA14" s="84"/>
-      <c r="CB14" s="84"/>
-      <c r="CC14" s="84"/>
-      <c r="CD14" s="84"/>
-      <c r="CE14" s="84"/>
-      <c r="CF14" s="84"/>
-      <c r="CG14" s="84"/>
-      <c r="CH14" s="84"/>
-      <c r="CI14" s="84"/>
-      <c r="CJ14" s="84"/>
-      <c r="CK14" s="84"/>
-      <c r="CL14" s="84"/>
-      <c r="CM14" s="84"/>
-      <c r="CN14" s="84"/>
-      <c r="CO14" s="84"/>
-      <c r="CP14" s="84"/>
-      <c r="CQ14" s="84"/>
-      <c r="CR14" s="84"/>
-      <c r="CS14" s="84"/>
-      <c r="CT14" s="84"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="83"/>
+      <c r="BC14" s="83"/>
+      <c r="BD14" s="83"/>
+      <c r="BE14" s="83"/>
+      <c r="BF14" s="83"/>
+      <c r="BG14" s="83"/>
+      <c r="BH14" s="83"/>
+      <c r="BI14" s="83"/>
+      <c r="BJ14" s="83"/>
+      <c r="BK14" s="83"/>
+      <c r="BL14" s="83"/>
+      <c r="BM14" s="83"/>
+      <c r="BN14" s="83"/>
+      <c r="BO14" s="83"/>
+      <c r="BP14" s="83"/>
+      <c r="BQ14" s="83"/>
+      <c r="BR14" s="83"/>
+      <c r="BS14" s="83"/>
+      <c r="BT14" s="83"/>
+      <c r="BU14" s="83"/>
+      <c r="BV14" s="83"/>
+      <c r="BW14" s="83"/>
+      <c r="BX14" s="83"/>
+      <c r="BY14" s="83"/>
+      <c r="BZ14" s="83"/>
+      <c r="CA14" s="83"/>
+      <c r="CB14" s="83"/>
+      <c r="CC14" s="83"/>
+      <c r="CD14" s="83"/>
+      <c r="CE14" s="83"/>
+      <c r="CF14" s="83"/>
+      <c r="CG14" s="83"/>
+      <c r="CH14" s="83"/>
+      <c r="CI14" s="83"/>
+      <c r="CJ14" s="83"/>
+      <c r="CK14" s="83"/>
+      <c r="CL14" s="83"/>
+      <c r="CM14" s="83"/>
+      <c r="CN14" s="83"/>
+      <c r="CO14" s="83"/>
+      <c r="CP14" s="83"/>
+      <c r="CQ14" s="83"/>
+      <c r="CR14" s="83"/>
+      <c r="CS14" s="83"/>
+      <c r="CT14" s="83"/>
     </row>
     <row r="15" spans="1:98" ht="24" customHeight="1">
       <c r="A15" s="39">
@@ -15075,7 +15129,7 @@
       <c r="C15" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="82" t="s">
         <v>184</v>
       </c>
       <c r="E15" s="39" t="s">
@@ -15099,7 +15153,7 @@
       <c r="L15" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="M15" s="83" t="s">
+      <c r="M15" s="82" t="s">
         <v>190</v>
       </c>
       <c r="N15" s="39">
@@ -15121,74 +15175,74 @@
       <c r="AB15" s="40"/>
       <c r="AC15" s="40"/>
       <c r="AD15" s="40"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="84"/>
-      <c r="BA15" s="84"/>
-      <c r="BB15" s="84"/>
-      <c r="BC15" s="84"/>
-      <c r="BD15" s="84"/>
-      <c r="BE15" s="84"/>
-      <c r="BF15" s="84"/>
-      <c r="BG15" s="84"/>
-      <c r="BH15" s="84"/>
-      <c r="BI15" s="84"/>
-      <c r="BJ15" s="84"/>
-      <c r="BK15" s="84"/>
-      <c r="BL15" s="84"/>
-      <c r="BM15" s="84"/>
-      <c r="BN15" s="84"/>
-      <c r="BO15" s="84"/>
-      <c r="BP15" s="84"/>
-      <c r="BQ15" s="84"/>
-      <c r="BR15" s="84"/>
-      <c r="BS15" s="84"/>
-      <c r="BT15" s="84"/>
-      <c r="BU15" s="84"/>
-      <c r="BV15" s="84"/>
-      <c r="BW15" s="84"/>
-      <c r="BX15" s="84"/>
-      <c r="BY15" s="84"/>
-      <c r="BZ15" s="84"/>
-      <c r="CA15" s="84"/>
-      <c r="CB15" s="84"/>
-      <c r="CC15" s="84"/>
-      <c r="CD15" s="84"/>
-      <c r="CE15" s="84"/>
-      <c r="CF15" s="84"/>
-      <c r="CG15" s="84"/>
-      <c r="CH15" s="84"/>
-      <c r="CI15" s="84"/>
-      <c r="CJ15" s="84"/>
-      <c r="CK15" s="84"/>
-      <c r="CL15" s="84"/>
-      <c r="CM15" s="84"/>
-      <c r="CN15" s="84"/>
-      <c r="CO15" s="84"/>
-      <c r="CP15" s="84"/>
-      <c r="CQ15" s="84"/>
-      <c r="CR15" s="84"/>
-      <c r="CS15" s="84"/>
-      <c r="CT15" s="84"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="83"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="83"/>
+      <c r="BB15" s="83"/>
+      <c r="BC15" s="83"/>
+      <c r="BD15" s="83"/>
+      <c r="BE15" s="83"/>
+      <c r="BF15" s="83"/>
+      <c r="BG15" s="83"/>
+      <c r="BH15" s="83"/>
+      <c r="BI15" s="83"/>
+      <c r="BJ15" s="83"/>
+      <c r="BK15" s="83"/>
+      <c r="BL15" s="83"/>
+      <c r="BM15" s="83"/>
+      <c r="BN15" s="83"/>
+      <c r="BO15" s="83"/>
+      <c r="BP15" s="83"/>
+      <c r="BQ15" s="83"/>
+      <c r="BR15" s="83"/>
+      <c r="BS15" s="83"/>
+      <c r="BT15" s="83"/>
+      <c r="BU15" s="83"/>
+      <c r="BV15" s="83"/>
+      <c r="BW15" s="83"/>
+      <c r="BX15" s="83"/>
+      <c r="BY15" s="83"/>
+      <c r="BZ15" s="83"/>
+      <c r="CA15" s="83"/>
+      <c r="CB15" s="83"/>
+      <c r="CC15" s="83"/>
+      <c r="CD15" s="83"/>
+      <c r="CE15" s="83"/>
+      <c r="CF15" s="83"/>
+      <c r="CG15" s="83"/>
+      <c r="CH15" s="83"/>
+      <c r="CI15" s="83"/>
+      <c r="CJ15" s="83"/>
+      <c r="CK15" s="83"/>
+      <c r="CL15" s="83"/>
+      <c r="CM15" s="83"/>
+      <c r="CN15" s="83"/>
+      <c r="CO15" s="83"/>
+      <c r="CP15" s="83"/>
+      <c r="CQ15" s="83"/>
+      <c r="CR15" s="83"/>
+      <c r="CS15" s="83"/>
+      <c r="CT15" s="83"/>
     </row>
     <row r="16" spans="1:98" ht="23.25" customHeight="1">
       <c r="A16" s="39">
@@ -15200,7 +15254,7 @@
       <c r="C16" s="39">
         <v>1076351053</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="82" t="s">
         <v>192</v>
       </c>
       <c r="E16" s="39">
@@ -15215,16 +15269,16 @@
       <c r="I16" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="88">
         <v>46606</v>
       </c>
-      <c r="K16" s="122" t="s">
+      <c r="K16" s="110" t="s">
         <v>194</v>
       </c>
       <c r="L16" s="39">
         <v>16188903</v>
       </c>
-      <c r="M16" s="83" t="s">
+      <c r="M16" s="82" t="s">
         <v>195</v>
       </c>
       <c r="N16" s="39">
@@ -15246,74 +15300,74 @@
       <c r="AB16" s="40"/>
       <c r="AC16" s="40"/>
       <c r="AD16" s="40"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="84"/>
-      <c r="BA16" s="84"/>
-      <c r="BB16" s="84"/>
-      <c r="BC16" s="84"/>
-      <c r="BD16" s="84"/>
-      <c r="BE16" s="84"/>
-      <c r="BF16" s="84"/>
-      <c r="BG16" s="84"/>
-      <c r="BH16" s="84"/>
-      <c r="BI16" s="84"/>
-      <c r="BJ16" s="84"/>
-      <c r="BK16" s="84"/>
-      <c r="BL16" s="84"/>
-      <c r="BM16" s="84"/>
-      <c r="BN16" s="84"/>
-      <c r="BO16" s="84"/>
-      <c r="BP16" s="84"/>
-      <c r="BQ16" s="84"/>
-      <c r="BR16" s="84"/>
-      <c r="BS16" s="84"/>
-      <c r="BT16" s="84"/>
-      <c r="BU16" s="84"/>
-      <c r="BV16" s="84"/>
-      <c r="BW16" s="84"/>
-      <c r="BX16" s="84"/>
-      <c r="BY16" s="84"/>
-      <c r="BZ16" s="84"/>
-      <c r="CA16" s="84"/>
-      <c r="CB16" s="84"/>
-      <c r="CC16" s="84"/>
-      <c r="CD16" s="84"/>
-      <c r="CE16" s="84"/>
-      <c r="CF16" s="84"/>
-      <c r="CG16" s="84"/>
-      <c r="CH16" s="84"/>
-      <c r="CI16" s="84"/>
-      <c r="CJ16" s="84"/>
-      <c r="CK16" s="84"/>
-      <c r="CL16" s="84"/>
-      <c r="CM16" s="84"/>
-      <c r="CN16" s="84"/>
-      <c r="CO16" s="84"/>
-      <c r="CP16" s="84"/>
-      <c r="CQ16" s="84"/>
-      <c r="CR16" s="84"/>
-      <c r="CS16" s="84"/>
-      <c r="CT16" s="84"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="83"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="83"/>
+      <c r="BB16" s="83"/>
+      <c r="BC16" s="83"/>
+      <c r="BD16" s="83"/>
+      <c r="BE16" s="83"/>
+      <c r="BF16" s="83"/>
+      <c r="BG16" s="83"/>
+      <c r="BH16" s="83"/>
+      <c r="BI16" s="83"/>
+      <c r="BJ16" s="83"/>
+      <c r="BK16" s="83"/>
+      <c r="BL16" s="83"/>
+      <c r="BM16" s="83"/>
+      <c r="BN16" s="83"/>
+      <c r="BO16" s="83"/>
+      <c r="BP16" s="83"/>
+      <c r="BQ16" s="83"/>
+      <c r="BR16" s="83"/>
+      <c r="BS16" s="83"/>
+      <c r="BT16" s="83"/>
+      <c r="BU16" s="83"/>
+      <c r="BV16" s="83"/>
+      <c r="BW16" s="83"/>
+      <c r="BX16" s="83"/>
+      <c r="BY16" s="83"/>
+      <c r="BZ16" s="83"/>
+      <c r="CA16" s="83"/>
+      <c r="CB16" s="83"/>
+      <c r="CC16" s="83"/>
+      <c r="CD16" s="83"/>
+      <c r="CE16" s="83"/>
+      <c r="CF16" s="83"/>
+      <c r="CG16" s="83"/>
+      <c r="CH16" s="83"/>
+      <c r="CI16" s="83"/>
+      <c r="CJ16" s="83"/>
+      <c r="CK16" s="83"/>
+      <c r="CL16" s="83"/>
+      <c r="CM16" s="83"/>
+      <c r="CN16" s="83"/>
+      <c r="CO16" s="83"/>
+      <c r="CP16" s="83"/>
+      <c r="CQ16" s="83"/>
+      <c r="CR16" s="83"/>
+      <c r="CS16" s="83"/>
+      <c r="CT16" s="83"/>
     </row>
     <row r="17" spans="1:98" ht="29.25" customHeight="1">
       <c r="A17" s="39">
@@ -15325,7 +15379,7 @@
       <c r="C17" s="39">
         <v>1118363518</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="82" t="s">
         <v>197</v>
       </c>
       <c r="E17" s="39">
@@ -15349,7 +15403,7 @@
       <c r="L17" s="39">
         <v>1118363518</v>
       </c>
-      <c r="M17" s="83" t="s">
+      <c r="M17" s="82" t="s">
         <v>202</v>
       </c>
       <c r="N17" s="39">
@@ -15371,74 +15425,74 @@
       <c r="AB17" s="40"/>
       <c r="AC17" s="40"/>
       <c r="AD17" s="40"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="84"/>
-      <c r="BA17" s="84"/>
-      <c r="BB17" s="84"/>
-      <c r="BC17" s="84"/>
-      <c r="BD17" s="84"/>
-      <c r="BE17" s="84"/>
-      <c r="BF17" s="84"/>
-      <c r="BG17" s="84"/>
-      <c r="BH17" s="84"/>
-      <c r="BI17" s="84"/>
-      <c r="BJ17" s="84"/>
-      <c r="BK17" s="84"/>
-      <c r="BL17" s="84"/>
-      <c r="BM17" s="84"/>
-      <c r="BN17" s="84"/>
-      <c r="BO17" s="84"/>
-      <c r="BP17" s="84"/>
-      <c r="BQ17" s="84"/>
-      <c r="BR17" s="84"/>
-      <c r="BS17" s="84"/>
-      <c r="BT17" s="84"/>
-      <c r="BU17" s="84"/>
-      <c r="BV17" s="84"/>
-      <c r="BW17" s="84"/>
-      <c r="BX17" s="84"/>
-      <c r="BY17" s="84"/>
-      <c r="BZ17" s="84"/>
-      <c r="CA17" s="84"/>
-      <c r="CB17" s="84"/>
-      <c r="CC17" s="84"/>
-      <c r="CD17" s="84"/>
-      <c r="CE17" s="84"/>
-      <c r="CF17" s="84"/>
-      <c r="CG17" s="84"/>
-      <c r="CH17" s="84"/>
-      <c r="CI17" s="84"/>
-      <c r="CJ17" s="84"/>
-      <c r="CK17" s="84"/>
-      <c r="CL17" s="84"/>
-      <c r="CM17" s="84"/>
-      <c r="CN17" s="84"/>
-      <c r="CO17" s="84"/>
-      <c r="CP17" s="84"/>
-      <c r="CQ17" s="84"/>
-      <c r="CR17" s="84"/>
-      <c r="CS17" s="84"/>
-      <c r="CT17" s="84"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="83"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="83"/>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="83"/>
+      <c r="BA17" s="83"/>
+      <c r="BB17" s="83"/>
+      <c r="BC17" s="83"/>
+      <c r="BD17" s="83"/>
+      <c r="BE17" s="83"/>
+      <c r="BF17" s="83"/>
+      <c r="BG17" s="83"/>
+      <c r="BH17" s="83"/>
+      <c r="BI17" s="83"/>
+      <c r="BJ17" s="83"/>
+      <c r="BK17" s="83"/>
+      <c r="BL17" s="83"/>
+      <c r="BM17" s="83"/>
+      <c r="BN17" s="83"/>
+      <c r="BO17" s="83"/>
+      <c r="BP17" s="83"/>
+      <c r="BQ17" s="83"/>
+      <c r="BR17" s="83"/>
+      <c r="BS17" s="83"/>
+      <c r="BT17" s="83"/>
+      <c r="BU17" s="83"/>
+      <c r="BV17" s="83"/>
+      <c r="BW17" s="83"/>
+      <c r="BX17" s="83"/>
+      <c r="BY17" s="83"/>
+      <c r="BZ17" s="83"/>
+      <c r="CA17" s="83"/>
+      <c r="CB17" s="83"/>
+      <c r="CC17" s="83"/>
+      <c r="CD17" s="83"/>
+      <c r="CE17" s="83"/>
+      <c r="CF17" s="83"/>
+      <c r="CG17" s="83"/>
+      <c r="CH17" s="83"/>
+      <c r="CI17" s="83"/>
+      <c r="CJ17" s="83"/>
+      <c r="CK17" s="83"/>
+      <c r="CL17" s="83"/>
+      <c r="CM17" s="83"/>
+      <c r="CN17" s="83"/>
+      <c r="CO17" s="83"/>
+      <c r="CP17" s="83"/>
+      <c r="CQ17" s="83"/>
+      <c r="CR17" s="83"/>
+      <c r="CS17" s="83"/>
+      <c r="CT17" s="83"/>
     </row>
     <row r="18" spans="1:98" ht="22.5" customHeight="1">
       <c r="A18" s="39">
@@ -15450,7 +15504,7 @@
       <c r="C18" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="82" t="s">
         <v>205</v>
       </c>
       <c r="E18" s="39" t="s">
@@ -15465,7 +15519,7 @@
       <c r="I18" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="88">
         <v>46269</v>
       </c>
       <c r="K18" s="39" t="s">
@@ -15474,7 +15528,7 @@
       <c r="L18" s="39">
         <v>1033761930</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="M18" s="82" t="s">
         <v>210</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -15496,74 +15550,74 @@
       <c r="AB18" s="40"/>
       <c r="AC18" s="40"/>
       <c r="AD18" s="40"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="84"/>
-      <c r="BB18" s="84"/>
-      <c r="BC18" s="84"/>
-      <c r="BD18" s="84"/>
-      <c r="BE18" s="84"/>
-      <c r="BF18" s="84"/>
-      <c r="BG18" s="84"/>
-      <c r="BH18" s="84"/>
-      <c r="BI18" s="84"/>
-      <c r="BJ18" s="84"/>
-      <c r="BK18" s="84"/>
-      <c r="BL18" s="84"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="84"/>
-      <c r="BO18" s="84"/>
-      <c r="BP18" s="84"/>
-      <c r="BQ18" s="84"/>
-      <c r="BR18" s="84"/>
-      <c r="BS18" s="84"/>
-      <c r="BT18" s="84"/>
-      <c r="BU18" s="84"/>
-      <c r="BV18" s="84"/>
-      <c r="BW18" s="84"/>
-      <c r="BX18" s="84"/>
-      <c r="BY18" s="84"/>
-      <c r="BZ18" s="84"/>
-      <c r="CA18" s="84"/>
-      <c r="CB18" s="84"/>
-      <c r="CC18" s="84"/>
-      <c r="CD18" s="84"/>
-      <c r="CE18" s="84"/>
-      <c r="CF18" s="84"/>
-      <c r="CG18" s="84"/>
-      <c r="CH18" s="84"/>
-      <c r="CI18" s="84"/>
-      <c r="CJ18" s="84"/>
-      <c r="CK18" s="84"/>
-      <c r="CL18" s="84"/>
-      <c r="CM18" s="84"/>
-      <c r="CN18" s="84"/>
-      <c r="CO18" s="84"/>
-      <c r="CP18" s="84"/>
-      <c r="CQ18" s="84"/>
-      <c r="CR18" s="84"/>
-      <c r="CS18" s="84"/>
-      <c r="CT18" s="84"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="83"/>
+      <c r="BC18" s="83"/>
+      <c r="BD18" s="83"/>
+      <c r="BE18" s="83"/>
+      <c r="BF18" s="83"/>
+      <c r="BG18" s="83"/>
+      <c r="BH18" s="83"/>
+      <c r="BI18" s="83"/>
+      <c r="BJ18" s="83"/>
+      <c r="BK18" s="83"/>
+      <c r="BL18" s="83"/>
+      <c r="BM18" s="83"/>
+      <c r="BN18" s="83"/>
+      <c r="BO18" s="83"/>
+      <c r="BP18" s="83"/>
+      <c r="BQ18" s="83"/>
+      <c r="BR18" s="83"/>
+      <c r="BS18" s="83"/>
+      <c r="BT18" s="83"/>
+      <c r="BU18" s="83"/>
+      <c r="BV18" s="83"/>
+      <c r="BW18" s="83"/>
+      <c r="BX18" s="83"/>
+      <c r="BY18" s="83"/>
+      <c r="BZ18" s="83"/>
+      <c r="CA18" s="83"/>
+      <c r="CB18" s="83"/>
+      <c r="CC18" s="83"/>
+      <c r="CD18" s="83"/>
+      <c r="CE18" s="83"/>
+      <c r="CF18" s="83"/>
+      <c r="CG18" s="83"/>
+      <c r="CH18" s="83"/>
+      <c r="CI18" s="83"/>
+      <c r="CJ18" s="83"/>
+      <c r="CK18" s="83"/>
+      <c r="CL18" s="83"/>
+      <c r="CM18" s="83"/>
+      <c r="CN18" s="83"/>
+      <c r="CO18" s="83"/>
+      <c r="CP18" s="83"/>
+      <c r="CQ18" s="83"/>
+      <c r="CR18" s="83"/>
+      <c r="CS18" s="83"/>
+      <c r="CT18" s="83"/>
     </row>
     <row r="19" spans="1:98" ht="27" customHeight="1">
       <c r="A19" s="39">
@@ -15575,7 +15629,7 @@
       <c r="C19" s="39">
         <v>1117532786</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="82" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="39">
@@ -15590,7 +15644,7 @@
       <c r="I19" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="J19" s="89">
+      <c r="J19" s="88">
         <v>46269</v>
       </c>
       <c r="K19" s="39" t="s">
@@ -15599,7 +15653,7 @@
       <c r="L19" s="39">
         <v>10065012028</v>
       </c>
-      <c r="M19" s="83" t="s">
+      <c r="M19" s="82" t="s">
         <v>216</v>
       </c>
       <c r="N19" s="39">
@@ -15621,74 +15675,74 @@
       <c r="AB19" s="40"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="40"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="84"/>
-      <c r="AS19" s="84"/>
-      <c r="AT19" s="84"/>
-      <c r="AU19" s="84"/>
-      <c r="AV19" s="84"/>
-      <c r="AW19" s="84"/>
-      <c r="AX19" s="84"/>
-      <c r="AY19" s="84"/>
-      <c r="AZ19" s="84"/>
-      <c r="BA19" s="84"/>
-      <c r="BB19" s="84"/>
-      <c r="BC19" s="84"/>
-      <c r="BD19" s="84"/>
-      <c r="BE19" s="84"/>
-      <c r="BF19" s="84"/>
-      <c r="BG19" s="84"/>
-      <c r="BH19" s="84"/>
-      <c r="BI19" s="84"/>
-      <c r="BJ19" s="84"/>
-      <c r="BK19" s="84"/>
-      <c r="BL19" s="84"/>
-      <c r="BM19" s="84"/>
-      <c r="BN19" s="84"/>
-      <c r="BO19" s="84"/>
-      <c r="BP19" s="84"/>
-      <c r="BQ19" s="84"/>
-      <c r="BR19" s="84"/>
-      <c r="BS19" s="84"/>
-      <c r="BT19" s="84"/>
-      <c r="BU19" s="84"/>
-      <c r="BV19" s="84"/>
-      <c r="BW19" s="84"/>
-      <c r="BX19" s="84"/>
-      <c r="BY19" s="84"/>
-      <c r="BZ19" s="84"/>
-      <c r="CA19" s="84"/>
-      <c r="CB19" s="84"/>
-      <c r="CC19" s="84"/>
-      <c r="CD19" s="84"/>
-      <c r="CE19" s="84"/>
-      <c r="CF19" s="84"/>
-      <c r="CG19" s="84"/>
-      <c r="CH19" s="84"/>
-      <c r="CI19" s="84"/>
-      <c r="CJ19" s="84"/>
-      <c r="CK19" s="84"/>
-      <c r="CL19" s="84"/>
-      <c r="CM19" s="84"/>
-      <c r="CN19" s="84"/>
-      <c r="CO19" s="84"/>
-      <c r="CP19" s="84"/>
-      <c r="CQ19" s="84"/>
-      <c r="CR19" s="84"/>
-      <c r="CS19" s="84"/>
-      <c r="CT19" s="84"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="83"/>
+      <c r="AN19" s="83"/>
+      <c r="AO19" s="83"/>
+      <c r="AP19" s="83"/>
+      <c r="AQ19" s="83"/>
+      <c r="AR19" s="83"/>
+      <c r="AS19" s="83"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="83"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="83"/>
+      <c r="AX19" s="83"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="83"/>
+      <c r="BA19" s="83"/>
+      <c r="BB19" s="83"/>
+      <c r="BC19" s="83"/>
+      <c r="BD19" s="83"/>
+      <c r="BE19" s="83"/>
+      <c r="BF19" s="83"/>
+      <c r="BG19" s="83"/>
+      <c r="BH19" s="83"/>
+      <c r="BI19" s="83"/>
+      <c r="BJ19" s="83"/>
+      <c r="BK19" s="83"/>
+      <c r="BL19" s="83"/>
+      <c r="BM19" s="83"/>
+      <c r="BN19" s="83"/>
+      <c r="BO19" s="83"/>
+      <c r="BP19" s="83"/>
+      <c r="BQ19" s="83"/>
+      <c r="BR19" s="83"/>
+      <c r="BS19" s="83"/>
+      <c r="BT19" s="83"/>
+      <c r="BU19" s="83"/>
+      <c r="BV19" s="83"/>
+      <c r="BW19" s="83"/>
+      <c r="BX19" s="83"/>
+      <c r="BY19" s="83"/>
+      <c r="BZ19" s="83"/>
+      <c r="CA19" s="83"/>
+      <c r="CB19" s="83"/>
+      <c r="CC19" s="83"/>
+      <c r="CD19" s="83"/>
+      <c r="CE19" s="83"/>
+      <c r="CF19" s="83"/>
+      <c r="CG19" s="83"/>
+      <c r="CH19" s="83"/>
+      <c r="CI19" s="83"/>
+      <c r="CJ19" s="83"/>
+      <c r="CK19" s="83"/>
+      <c r="CL19" s="83"/>
+      <c r="CM19" s="83"/>
+      <c r="CN19" s="83"/>
+      <c r="CO19" s="83"/>
+      <c r="CP19" s="83"/>
+      <c r="CQ19" s="83"/>
+      <c r="CR19" s="83"/>
+      <c r="CS19" s="83"/>
+      <c r="CT19" s="83"/>
     </row>
     <row r="20" spans="1:98" ht="27" customHeight="1">
       <c r="A20" s="56">
@@ -15700,7 +15754,7 @@
       <c r="C20" s="56">
         <v>1137624357</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="89" t="s">
         <v>218</v>
       </c>
       <c r="E20" s="56">
@@ -15724,7 +15778,7 @@
       <c r="L20" s="56">
         <v>1006487561</v>
       </c>
-      <c r="M20" s="90" t="s">
+      <c r="M20" s="89" t="s">
         <v>222</v>
       </c>
       <c r="N20" s="56">
@@ -15746,199 +15800,199 @@
       <c r="AB20" s="40"/>
       <c r="AC20" s="40"/>
       <c r="AD20" s="40"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="84"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="84"/>
-      <c r="AU20" s="84"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="84"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="84"/>
-      <c r="BA20" s="84"/>
-      <c r="BB20" s="84"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="84"/>
-      <c r="BE20" s="84"/>
-      <c r="BF20" s="84"/>
-      <c r="BG20" s="84"/>
-      <c r="BH20" s="84"/>
-      <c r="BI20" s="84"/>
-      <c r="BJ20" s="84"/>
-      <c r="BK20" s="84"/>
-      <c r="BL20" s="84"/>
-      <c r="BM20" s="84"/>
-      <c r="BN20" s="84"/>
-      <c r="BO20" s="84"/>
-      <c r="BP20" s="84"/>
-      <c r="BQ20" s="84"/>
-      <c r="BR20" s="84"/>
-      <c r="BS20" s="84"/>
-      <c r="BT20" s="84"/>
-      <c r="BU20" s="84"/>
-      <c r="BV20" s="84"/>
-      <c r="BW20" s="84"/>
-      <c r="BX20" s="84"/>
-      <c r="BY20" s="84"/>
-      <c r="BZ20" s="84"/>
-      <c r="CA20" s="84"/>
-      <c r="CB20" s="84"/>
-      <c r="CC20" s="84"/>
-      <c r="CD20" s="84"/>
-      <c r="CE20" s="84"/>
-      <c r="CF20" s="84"/>
-      <c r="CG20" s="84"/>
-      <c r="CH20" s="84"/>
-      <c r="CI20" s="84"/>
-      <c r="CJ20" s="84"/>
-      <c r="CK20" s="84"/>
-      <c r="CL20" s="84"/>
-      <c r="CM20" s="84"/>
-      <c r="CN20" s="84"/>
-      <c r="CO20" s="84"/>
-      <c r="CP20" s="84"/>
-      <c r="CQ20" s="84"/>
-      <c r="CR20" s="84"/>
-      <c r="CS20" s="84"/>
-      <c r="CT20" s="84"/>
-    </row>
-    <row r="21" spans="1:98" s="115" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A21" s="110">
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="83"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="83"/>
+      <c r="AO20" s="83"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="83"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="83"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="83"/>
+      <c r="BA20" s="83"/>
+      <c r="BB20" s="83"/>
+      <c r="BC20" s="83"/>
+      <c r="BD20" s="83"/>
+      <c r="BE20" s="83"/>
+      <c r="BF20" s="83"/>
+      <c r="BG20" s="83"/>
+      <c r="BH20" s="83"/>
+      <c r="BI20" s="83"/>
+      <c r="BJ20" s="83"/>
+      <c r="BK20" s="83"/>
+      <c r="BL20" s="83"/>
+      <c r="BM20" s="83"/>
+      <c r="BN20" s="83"/>
+      <c r="BO20" s="83"/>
+      <c r="BP20" s="83"/>
+      <c r="BQ20" s="83"/>
+      <c r="BR20" s="83"/>
+      <c r="BS20" s="83"/>
+      <c r="BT20" s="83"/>
+      <c r="BU20" s="83"/>
+      <c r="BV20" s="83"/>
+      <c r="BW20" s="83"/>
+      <c r="BX20" s="83"/>
+      <c r="BY20" s="83"/>
+      <c r="BZ20" s="83"/>
+      <c r="CA20" s="83"/>
+      <c r="CB20" s="83"/>
+      <c r="CC20" s="83"/>
+      <c r="CD20" s="83"/>
+      <c r="CE20" s="83"/>
+      <c r="CF20" s="83"/>
+      <c r="CG20" s="83"/>
+      <c r="CH20" s="83"/>
+      <c r="CI20" s="83"/>
+      <c r="CJ20" s="83"/>
+      <c r="CK20" s="83"/>
+      <c r="CL20" s="83"/>
+      <c r="CM20" s="83"/>
+      <c r="CN20" s="83"/>
+      <c r="CO20" s="83"/>
+      <c r="CP20" s="83"/>
+      <c r="CQ20" s="83"/>
+      <c r="CR20" s="83"/>
+      <c r="CS20" s="83"/>
+      <c r="CT20" s="83"/>
+    </row>
+    <row r="21" spans="1:98" s="103" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A21" s="98">
         <v>3407689</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="117">
+      <c r="C21" s="105">
         <v>1117507910</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="98">
         <v>3107653637</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="110" t="s">
+      <c r="I21" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="116">
+      <c r="J21" s="104">
         <v>46669</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="98">
         <v>1117500805</v>
       </c>
-      <c r="M21" s="113" t="s">
+      <c r="M21" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="N21" s="110">
+      <c r="N21" s="98">
         <v>3107613429</v>
       </c>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="125"/>
-      <c r="AB21" s="125"/>
-      <c r="AC21" s="125"/>
-      <c r="AD21" s="125"/>
-      <c r="AE21" s="126"/>
-      <c r="AF21" s="126"/>
-      <c r="AG21" s="126"/>
-      <c r="AH21" s="126"/>
-      <c r="AI21" s="126"/>
-      <c r="AJ21" s="126"/>
-      <c r="AK21" s="126"/>
-      <c r="AL21" s="126"/>
-      <c r="AM21" s="126"/>
-      <c r="AN21" s="126"/>
-      <c r="AO21" s="126"/>
-      <c r="AP21" s="126"/>
-      <c r="AQ21" s="126"/>
-      <c r="AR21" s="126"/>
-      <c r="AS21" s="126"/>
-      <c r="AT21" s="126"/>
-      <c r="AU21" s="126"/>
-      <c r="AV21" s="126"/>
-      <c r="AW21" s="126"/>
-      <c r="AX21" s="126"/>
-      <c r="AY21" s="126"/>
-      <c r="AZ21" s="126"/>
-      <c r="BA21" s="126"/>
-      <c r="BB21" s="126"/>
-      <c r="BC21" s="126"/>
-      <c r="BD21" s="126"/>
-      <c r="BE21" s="126"/>
-      <c r="BF21" s="126"/>
-      <c r="BG21" s="126"/>
-      <c r="BH21" s="126"/>
-      <c r="BI21" s="126"/>
-      <c r="BJ21" s="126"/>
-      <c r="BK21" s="126"/>
-      <c r="BL21" s="126"/>
-      <c r="BM21" s="126"/>
-      <c r="BN21" s="126"/>
-      <c r="BO21" s="126"/>
-      <c r="BP21" s="126"/>
-      <c r="BQ21" s="126"/>
-      <c r="BR21" s="126"/>
-      <c r="BS21" s="126"/>
-      <c r="BT21" s="126"/>
-      <c r="BU21" s="126"/>
-      <c r="BV21" s="126"/>
-      <c r="BW21" s="126"/>
-      <c r="BX21" s="126"/>
-      <c r="BY21" s="126"/>
-      <c r="BZ21" s="126"/>
-      <c r="CA21" s="126"/>
-      <c r="CB21" s="126"/>
-      <c r="CC21" s="126"/>
-      <c r="CD21" s="126"/>
-      <c r="CE21" s="126"/>
-      <c r="CF21" s="126"/>
-      <c r="CG21" s="126"/>
-      <c r="CH21" s="126"/>
-      <c r="CI21" s="126"/>
-      <c r="CJ21" s="126"/>
-      <c r="CK21" s="126"/>
-      <c r="CL21" s="126"/>
-      <c r="CM21" s="126"/>
-      <c r="CN21" s="126"/>
-      <c r="CO21" s="126"/>
-      <c r="CP21" s="126"/>
-      <c r="CQ21" s="126"/>
-      <c r="CR21" s="126"/>
-      <c r="CS21" s="126"/>
-      <c r="CT21" s="126"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="114"/>
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="114"/>
+      <c r="AL21" s="114"/>
+      <c r="AM21" s="114"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+      <c r="AX21" s="114"/>
+      <c r="AY21" s="114"/>
+      <c r="AZ21" s="114"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="114"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
+      <c r="BI21" s="114"/>
+      <c r="BJ21" s="114"/>
+      <c r="BK21" s="114"/>
+      <c r="BL21" s="114"/>
+      <c r="BM21" s="114"/>
+      <c r="BN21" s="114"/>
+      <c r="BO21" s="114"/>
+      <c r="BP21" s="114"/>
+      <c r="BQ21" s="114"/>
+      <c r="BR21" s="114"/>
+      <c r="BS21" s="114"/>
+      <c r="BT21" s="114"/>
+      <c r="BU21" s="114"/>
+      <c r="BV21" s="114"/>
+      <c r="BW21" s="114"/>
+      <c r="BX21" s="114"/>
+      <c r="BY21" s="114"/>
+      <c r="BZ21" s="114"/>
+      <c r="CA21" s="114"/>
+      <c r="CB21" s="114"/>
+      <c r="CC21" s="114"/>
+      <c r="CD21" s="114"/>
+      <c r="CE21" s="114"/>
+      <c r="CF21" s="114"/>
+      <c r="CG21" s="114"/>
+      <c r="CH21" s="114"/>
+      <c r="CI21" s="114"/>
+      <c r="CJ21" s="114"/>
+      <c r="CK21" s="114"/>
+      <c r="CL21" s="114"/>
+      <c r="CM21" s="114"/>
+      <c r="CN21" s="114"/>
+      <c r="CO21" s="114"/>
+      <c r="CP21" s="114"/>
+      <c r="CQ21" s="114"/>
+      <c r="CR21" s="114"/>
+      <c r="CS21" s="114"/>
+      <c r="CT21" s="114"/>
     </row>
     <row r="22" spans="1:98" ht="39" customHeight="1">
       <c r="A22" s="27">
@@ -15947,10 +16001,10 @@
       <c r="B22" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="91">
+      <c r="C22" s="90">
         <v>1013111049</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="91" t="s">
         <v>229</v>
       </c>
       <c r="E22" s="27">
@@ -15974,7 +16028,7 @@
       <c r="L22" s="27">
         <v>1118364605</v>
       </c>
-      <c r="M22" s="92" t="s">
+      <c r="M22" s="91" t="s">
         <v>231</v>
       </c>
       <c r="N22" s="27">
@@ -15996,447 +16050,447 @@
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="40"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="84"/>
-      <c r="BC22" s="84"/>
-      <c r="BD22" s="84"/>
-      <c r="BE22" s="84"/>
-      <c r="BF22" s="84"/>
-      <c r="BG22" s="84"/>
-      <c r="BH22" s="84"/>
-      <c r="BI22" s="84"/>
-      <c r="BJ22" s="84"/>
-      <c r="BK22" s="84"/>
-      <c r="BL22" s="84"/>
-      <c r="BM22" s="84"/>
-      <c r="BN22" s="84"/>
-      <c r="BO22" s="84"/>
-      <c r="BP22" s="84"/>
-      <c r="BQ22" s="84"/>
-      <c r="BR22" s="84"/>
-      <c r="BS22" s="84"/>
-      <c r="BT22" s="84"/>
-      <c r="BU22" s="84"/>
-      <c r="BV22" s="84"/>
-      <c r="BW22" s="84"/>
-      <c r="BX22" s="84"/>
-      <c r="BY22" s="84"/>
-      <c r="BZ22" s="84"/>
-      <c r="CA22" s="84"/>
-      <c r="CB22" s="84"/>
-      <c r="CC22" s="84"/>
-      <c r="CD22" s="84"/>
-      <c r="CE22" s="84"/>
-      <c r="CF22" s="84"/>
-      <c r="CG22" s="84"/>
-      <c r="CH22" s="84"/>
-      <c r="CI22" s="84"/>
-      <c r="CJ22" s="84"/>
-      <c r="CK22" s="84"/>
-      <c r="CL22" s="84"/>
-      <c r="CM22" s="84"/>
-      <c r="CN22" s="84"/>
-      <c r="CO22" s="84"/>
-      <c r="CP22" s="84"/>
-      <c r="CQ22" s="84"/>
-      <c r="CR22" s="84"/>
-      <c r="CS22" s="84"/>
-      <c r="CT22" s="84"/>
-    </row>
-    <row r="23" spans="1:98" s="115" customFormat="1" ht="33" customHeight="1">
-      <c r="A23" s="110">
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="83"/>
+      <c r="AO22" s="83"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="83"/>
+      <c r="AR22" s="83"/>
+      <c r="AS22" s="83"/>
+      <c r="AT22" s="83"/>
+      <c r="AU22" s="83"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="83"/>
+      <c r="AX22" s="83"/>
+      <c r="AY22" s="83"/>
+      <c r="AZ22" s="83"/>
+      <c r="BA22" s="83"/>
+      <c r="BB22" s="83"/>
+      <c r="BC22" s="83"/>
+      <c r="BD22" s="83"/>
+      <c r="BE22" s="83"/>
+      <c r="BF22" s="83"/>
+      <c r="BG22" s="83"/>
+      <c r="BH22" s="83"/>
+      <c r="BI22" s="83"/>
+      <c r="BJ22" s="83"/>
+      <c r="BK22" s="83"/>
+      <c r="BL22" s="83"/>
+      <c r="BM22" s="83"/>
+      <c r="BN22" s="83"/>
+      <c r="BO22" s="83"/>
+      <c r="BP22" s="83"/>
+      <c r="BQ22" s="83"/>
+      <c r="BR22" s="83"/>
+      <c r="BS22" s="83"/>
+      <c r="BT22" s="83"/>
+      <c r="BU22" s="83"/>
+      <c r="BV22" s="83"/>
+      <c r="BW22" s="83"/>
+      <c r="BX22" s="83"/>
+      <c r="BY22" s="83"/>
+      <c r="BZ22" s="83"/>
+      <c r="CA22" s="83"/>
+      <c r="CB22" s="83"/>
+      <c r="CC22" s="83"/>
+      <c r="CD22" s="83"/>
+      <c r="CE22" s="83"/>
+      <c r="CF22" s="83"/>
+      <c r="CG22" s="83"/>
+      <c r="CH22" s="83"/>
+      <c r="CI22" s="83"/>
+      <c r="CJ22" s="83"/>
+      <c r="CK22" s="83"/>
+      <c r="CL22" s="83"/>
+      <c r="CM22" s="83"/>
+      <c r="CN22" s="83"/>
+      <c r="CO22" s="83"/>
+      <c r="CP22" s="83"/>
+      <c r="CQ22" s="83"/>
+      <c r="CR22" s="83"/>
+      <c r="CS22" s="83"/>
+      <c r="CT22" s="83"/>
+    </row>
+    <row r="23" spans="1:98" s="103" customFormat="1" ht="33" customHeight="1">
+      <c r="A23" s="98">
         <v>3398381</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="110">
+      <c r="C23" s="98">
         <v>17656319</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="98">
         <v>3212019404</v>
       </c>
-      <c r="F23" s="110" t="s">
+      <c r="F23" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="G23" s="110" t="s">
+      <c r="G23" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="I23" s="110" t="s">
+      <c r="I23" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="J23" s="110" t="s">
+      <c r="J23" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="K23" s="110" t="s">
+      <c r="K23" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="L23" s="110">
+      <c r="L23" s="98">
         <v>30505036</v>
       </c>
-      <c r="M23" s="113" t="s">
+      <c r="M23" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="N23" s="110">
+      <c r="N23" s="98">
         <v>3118292695</v>
       </c>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125"/>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="126"/>
-      <c r="AF23" s="126"/>
-      <c r="AG23" s="126"/>
-      <c r="AH23" s="126"/>
-      <c r="AI23" s="126"/>
-      <c r="AJ23" s="126"/>
-      <c r="AK23" s="126"/>
-      <c r="AL23" s="126"/>
-      <c r="AM23" s="126"/>
-      <c r="AN23" s="126"/>
-      <c r="AO23" s="126"/>
-      <c r="AP23" s="126"/>
-      <c r="AQ23" s="126"/>
-      <c r="AR23" s="126"/>
-      <c r="AS23" s="126"/>
-      <c r="AT23" s="126"/>
-      <c r="AU23" s="126"/>
-      <c r="AV23" s="126"/>
-      <c r="AW23" s="126"/>
-      <c r="AX23" s="126"/>
-      <c r="AY23" s="126"/>
-      <c r="AZ23" s="126"/>
-      <c r="BA23" s="126"/>
-      <c r="BB23" s="126"/>
-      <c r="BC23" s="126"/>
-      <c r="BD23" s="126"/>
-      <c r="BE23" s="126"/>
-      <c r="BF23" s="126"/>
-      <c r="BG23" s="126"/>
-      <c r="BH23" s="126"/>
-      <c r="BI23" s="126"/>
-      <c r="BJ23" s="126"/>
-      <c r="BK23" s="126"/>
-      <c r="BL23" s="126"/>
-      <c r="BM23" s="126"/>
-      <c r="BN23" s="126"/>
-      <c r="BO23" s="126"/>
-      <c r="BP23" s="126"/>
-      <c r="BQ23" s="126"/>
-      <c r="BR23" s="126"/>
-      <c r="BS23" s="126"/>
-      <c r="BT23" s="126"/>
-      <c r="BU23" s="126"/>
-      <c r="BV23" s="126"/>
-      <c r="BW23" s="126"/>
-      <c r="BX23" s="126"/>
-      <c r="BY23" s="126"/>
-      <c r="BZ23" s="126"/>
-      <c r="CA23" s="126"/>
-      <c r="CB23" s="126"/>
-      <c r="CC23" s="126"/>
-      <c r="CD23" s="126"/>
-      <c r="CE23" s="126"/>
-      <c r="CF23" s="126"/>
-      <c r="CG23" s="126"/>
-      <c r="CH23" s="126"/>
-      <c r="CI23" s="126"/>
-      <c r="CJ23" s="126"/>
-      <c r="CK23" s="126"/>
-      <c r="CL23" s="126"/>
-      <c r="CM23" s="126"/>
-      <c r="CN23" s="126"/>
-      <c r="CO23" s="126"/>
-      <c r="CP23" s="126"/>
-      <c r="CQ23" s="126"/>
-      <c r="CR23" s="126"/>
-      <c r="CS23" s="126"/>
-      <c r="CT23" s="126"/>
-    </row>
-    <row r="24" spans="1:98" s="115" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A24" s="110">
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="114"/>
+      <c r="AL23" s="114"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
+      <c r="AX23" s="114"/>
+      <c r="AY23" s="114"/>
+      <c r="AZ23" s="114"/>
+      <c r="BA23" s="114"/>
+      <c r="BB23" s="114"/>
+      <c r="BC23" s="114"/>
+      <c r="BD23" s="114"/>
+      <c r="BE23" s="114"/>
+      <c r="BF23" s="114"/>
+      <c r="BG23" s="114"/>
+      <c r="BH23" s="114"/>
+      <c r="BI23" s="114"/>
+      <c r="BJ23" s="114"/>
+      <c r="BK23" s="114"/>
+      <c r="BL23" s="114"/>
+      <c r="BM23" s="114"/>
+      <c r="BN23" s="114"/>
+      <c r="BO23" s="114"/>
+      <c r="BP23" s="114"/>
+      <c r="BQ23" s="114"/>
+      <c r="BR23" s="114"/>
+      <c r="BS23" s="114"/>
+      <c r="BT23" s="114"/>
+      <c r="BU23" s="114"/>
+      <c r="BV23" s="114"/>
+      <c r="BW23" s="114"/>
+      <c r="BX23" s="114"/>
+      <c r="BY23" s="114"/>
+      <c r="BZ23" s="114"/>
+      <c r="CA23" s="114"/>
+      <c r="CB23" s="114"/>
+      <c r="CC23" s="114"/>
+      <c r="CD23" s="114"/>
+      <c r="CE23" s="114"/>
+      <c r="CF23" s="114"/>
+      <c r="CG23" s="114"/>
+      <c r="CH23" s="114"/>
+      <c r="CI23" s="114"/>
+      <c r="CJ23" s="114"/>
+      <c r="CK23" s="114"/>
+      <c r="CL23" s="114"/>
+      <c r="CM23" s="114"/>
+      <c r="CN23" s="114"/>
+      <c r="CO23" s="114"/>
+      <c r="CP23" s="114"/>
+      <c r="CQ23" s="114"/>
+      <c r="CR23" s="114"/>
+      <c r="CS23" s="114"/>
+      <c r="CT23" s="114"/>
+    </row>
+    <row r="24" spans="1:98" s="103" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A24" s="98">
         <v>3398384</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="110">
+      <c r="C24" s="98">
         <v>30509912</v>
       </c>
-      <c r="D24" s="113" t="s">
+      <c r="D24" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="110">
+      <c r="E24" s="98">
         <v>3112320078</v>
       </c>
-      <c r="F24" s="110" t="s">
+      <c r="F24" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="G24" s="110" t="s">
+      <c r="G24" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="I24" s="110" t="s">
+      <c r="I24" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="J24" s="110" t="s">
+      <c r="J24" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="K24" s="127" t="s">
+      <c r="K24" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="L24" s="127">
+      <c r="L24" s="115">
         <v>17655013</v>
       </c>
-      <c r="M24" s="128" t="s">
+      <c r="M24" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="N24" s="127"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="130"/>
-      <c r="AH24" s="130"/>
-      <c r="AI24" s="130"/>
-      <c r="AJ24" s="130"/>
-      <c r="AK24" s="130"/>
-      <c r="AL24" s="130"/>
-      <c r="AM24" s="130"/>
-      <c r="AN24" s="130"/>
-      <c r="AO24" s="130"/>
-      <c r="AP24" s="130"/>
-      <c r="AQ24" s="130"/>
-      <c r="AR24" s="130"/>
-      <c r="AS24" s="130"/>
-      <c r="AT24" s="130"/>
-      <c r="AU24" s="130"/>
-      <c r="AV24" s="130"/>
-      <c r="AW24" s="130"/>
-      <c r="AX24" s="130"/>
-      <c r="AY24" s="130"/>
-      <c r="AZ24" s="130"/>
-      <c r="BA24" s="130"/>
-      <c r="BB24" s="130"/>
-      <c r="BC24" s="130"/>
-      <c r="BD24" s="130"/>
-      <c r="BE24" s="130"/>
-      <c r="BF24" s="130"/>
-      <c r="BG24" s="130"/>
-      <c r="BH24" s="130"/>
-      <c r="BI24" s="130"/>
-      <c r="BJ24" s="130"/>
-      <c r="BK24" s="130"/>
-      <c r="BL24" s="130"/>
-      <c r="BM24" s="130"/>
-      <c r="BN24" s="130"/>
-      <c r="BO24" s="130"/>
-      <c r="BP24" s="130"/>
-      <c r="BQ24" s="130"/>
-      <c r="BR24" s="130"/>
-      <c r="BS24" s="130"/>
-      <c r="BT24" s="130"/>
-      <c r="BU24" s="130"/>
-      <c r="BV24" s="130"/>
-      <c r="BW24" s="130"/>
-      <c r="BX24" s="130"/>
-      <c r="BY24" s="130"/>
-      <c r="BZ24" s="130"/>
-      <c r="CA24" s="130"/>
-      <c r="CB24" s="130"/>
-      <c r="CC24" s="130"/>
-      <c r="CD24" s="130"/>
-      <c r="CE24" s="130"/>
-      <c r="CF24" s="130"/>
-      <c r="CG24" s="130"/>
-      <c r="CH24" s="130"/>
-      <c r="CI24" s="130"/>
-      <c r="CJ24" s="130"/>
-      <c r="CK24" s="130"/>
-      <c r="CL24" s="130"/>
-      <c r="CM24" s="130"/>
-      <c r="CN24" s="130"/>
-      <c r="CO24" s="130"/>
-      <c r="CP24" s="130"/>
-      <c r="CQ24" s="130"/>
-      <c r="CR24" s="130"/>
-      <c r="CS24" s="130"/>
-      <c r="CT24" s="130"/>
-    </row>
-    <row r="25" spans="1:98" s="115" customFormat="1" ht="42" customHeight="1">
-      <c r="A25" s="117">
+      <c r="N24" s="115"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="118"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="118"/>
+      <c r="AR24" s="118"/>
+      <c r="AS24" s="118"/>
+      <c r="AT24" s="118"/>
+      <c r="AU24" s="118"/>
+      <c r="AV24" s="118"/>
+      <c r="AW24" s="118"/>
+      <c r="AX24" s="118"/>
+      <c r="AY24" s="118"/>
+      <c r="AZ24" s="118"/>
+      <c r="BA24" s="118"/>
+      <c r="BB24" s="118"/>
+      <c r="BC24" s="118"/>
+      <c r="BD24" s="118"/>
+      <c r="BE24" s="118"/>
+      <c r="BF24" s="118"/>
+      <c r="BG24" s="118"/>
+      <c r="BH24" s="118"/>
+      <c r="BI24" s="118"/>
+      <c r="BJ24" s="118"/>
+      <c r="BK24" s="118"/>
+      <c r="BL24" s="118"/>
+      <c r="BM24" s="118"/>
+      <c r="BN24" s="118"/>
+      <c r="BO24" s="118"/>
+      <c r="BP24" s="118"/>
+      <c r="BQ24" s="118"/>
+      <c r="BR24" s="118"/>
+      <c r="BS24" s="118"/>
+      <c r="BT24" s="118"/>
+      <c r="BU24" s="118"/>
+      <c r="BV24" s="118"/>
+      <c r="BW24" s="118"/>
+      <c r="BX24" s="118"/>
+      <c r="BY24" s="118"/>
+      <c r="BZ24" s="118"/>
+      <c r="CA24" s="118"/>
+      <c r="CB24" s="118"/>
+      <c r="CC24" s="118"/>
+      <c r="CD24" s="118"/>
+      <c r="CE24" s="118"/>
+      <c r="CF24" s="118"/>
+      <c r="CG24" s="118"/>
+      <c r="CH24" s="118"/>
+      <c r="CI24" s="118"/>
+      <c r="CJ24" s="118"/>
+      <c r="CK24" s="118"/>
+      <c r="CL24" s="118"/>
+      <c r="CM24" s="118"/>
+      <c r="CN24" s="118"/>
+      <c r="CO24" s="118"/>
+      <c r="CP24" s="118"/>
+      <c r="CQ24" s="118"/>
+      <c r="CR24" s="118"/>
+      <c r="CS24" s="118"/>
+      <c r="CT24" s="118"/>
+    </row>
+    <row r="25" spans="1:98" s="103" customFormat="1" ht="42" customHeight="1">
+      <c r="A25" s="105">
         <v>3405403</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="117">
+      <c r="C25" s="105">
         <v>40778440</v>
       </c>
-      <c r="D25" s="131" t="s">
+      <c r="D25" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="117">
+      <c r="E25" s="105">
         <v>3227113634</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="117" t="s">
+      <c r="G25" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="117" t="s">
+      <c r="I25" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="J25" s="121">
+      <c r="J25" s="109">
         <v>46084</v>
       </c>
-      <c r="K25" s="117" t="s">
+      <c r="K25" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="L25" s="117">
+      <c r="L25" s="105">
         <v>1117489273</v>
       </c>
-      <c r="M25" s="131" t="s">
+      <c r="M25" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="N25" s="117">
+      <c r="N25" s="105">
         <v>323701478</v>
       </c>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="125"/>
-      <c r="AE25" s="126"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="126"/>
-      <c r="AJ25" s="126"/>
-      <c r="AK25" s="126"/>
-      <c r="AL25" s="126"/>
-      <c r="AM25" s="126"/>
-      <c r="AN25" s="126"/>
-      <c r="AO25" s="126"/>
-      <c r="AP25" s="126"/>
-      <c r="AQ25" s="126"/>
-      <c r="AR25" s="126"/>
-      <c r="AS25" s="126"/>
-      <c r="AT25" s="126"/>
-      <c r="AU25" s="126"/>
-      <c r="AV25" s="126"/>
-      <c r="AW25" s="126"/>
-      <c r="AX25" s="126"/>
-      <c r="AY25" s="126"/>
-      <c r="AZ25" s="126"/>
-      <c r="BA25" s="126"/>
-      <c r="BB25" s="126"/>
-      <c r="BC25" s="126"/>
-      <c r="BD25" s="126"/>
-      <c r="BE25" s="126"/>
-      <c r="BF25" s="126"/>
-      <c r="BG25" s="126"/>
-      <c r="BH25" s="126"/>
-      <c r="BI25" s="126"/>
-      <c r="BJ25" s="126"/>
-      <c r="BK25" s="126"/>
-      <c r="BL25" s="126"/>
-      <c r="BM25" s="126"/>
-      <c r="BN25" s="126"/>
-      <c r="BO25" s="126"/>
-      <c r="BP25" s="126"/>
-      <c r="BQ25" s="126"/>
-      <c r="BR25" s="126"/>
-      <c r="BS25" s="126"/>
-      <c r="BT25" s="126"/>
-      <c r="BU25" s="126"/>
-      <c r="BV25" s="126"/>
-      <c r="BW25" s="126"/>
-      <c r="BX25" s="126"/>
-      <c r="BY25" s="126"/>
-      <c r="BZ25" s="126"/>
-      <c r="CA25" s="126"/>
-      <c r="CB25" s="126"/>
-      <c r="CC25" s="126"/>
-      <c r="CD25" s="126"/>
-      <c r="CE25" s="126"/>
-      <c r="CF25" s="126"/>
-      <c r="CG25" s="126"/>
-      <c r="CH25" s="126"/>
-      <c r="CI25" s="126"/>
-      <c r="CJ25" s="126"/>
-      <c r="CK25" s="126"/>
-      <c r="CL25" s="126"/>
-      <c r="CM25" s="126"/>
-      <c r="CN25" s="126"/>
-      <c r="CO25" s="126"/>
-      <c r="CP25" s="126"/>
-      <c r="CQ25" s="126"/>
-      <c r="CR25" s="126"/>
-      <c r="CS25" s="126"/>
-      <c r="CT25" s="126"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="114"/>
+      <c r="AF25" s="114"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="114"/>
+      <c r="AI25" s="114"/>
+      <c r="AJ25" s="114"/>
+      <c r="AK25" s="114"/>
+      <c r="AL25" s="114"/>
+      <c r="AM25" s="114"/>
+      <c r="AN25" s="114"/>
+      <c r="AO25" s="114"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="114"/>
+      <c r="AR25" s="114"/>
+      <c r="AS25" s="114"/>
+      <c r="AT25" s="114"/>
+      <c r="AU25" s="114"/>
+      <c r="AV25" s="114"/>
+      <c r="AW25" s="114"/>
+      <c r="AX25" s="114"/>
+      <c r="AY25" s="114"/>
+      <c r="AZ25" s="114"/>
+      <c r="BA25" s="114"/>
+      <c r="BB25" s="114"/>
+      <c r="BC25" s="114"/>
+      <c r="BD25" s="114"/>
+      <c r="BE25" s="114"/>
+      <c r="BF25" s="114"/>
+      <c r="BG25" s="114"/>
+      <c r="BH25" s="114"/>
+      <c r="BI25" s="114"/>
+      <c r="BJ25" s="114"/>
+      <c r="BK25" s="114"/>
+      <c r="BL25" s="114"/>
+      <c r="BM25" s="114"/>
+      <c r="BN25" s="114"/>
+      <c r="BO25" s="114"/>
+      <c r="BP25" s="114"/>
+      <c r="BQ25" s="114"/>
+      <c r="BR25" s="114"/>
+      <c r="BS25" s="114"/>
+      <c r="BT25" s="114"/>
+      <c r="BU25" s="114"/>
+      <c r="BV25" s="114"/>
+      <c r="BW25" s="114"/>
+      <c r="BX25" s="114"/>
+      <c r="BY25" s="114"/>
+      <c r="BZ25" s="114"/>
+      <c r="CA25" s="114"/>
+      <c r="CB25" s="114"/>
+      <c r="CC25" s="114"/>
+      <c r="CD25" s="114"/>
+      <c r="CE25" s="114"/>
+      <c r="CF25" s="114"/>
+      <c r="CG25" s="114"/>
+      <c r="CH25" s="114"/>
+      <c r="CI25" s="114"/>
+      <c r="CJ25" s="114"/>
+      <c r="CK25" s="114"/>
+      <c r="CL25" s="114"/>
+      <c r="CM25" s="114"/>
+      <c r="CN25" s="114"/>
+      <c r="CO25" s="114"/>
+      <c r="CP25" s="114"/>
+      <c r="CQ25" s="114"/>
+      <c r="CR25" s="114"/>
+      <c r="CS25" s="114"/>
+      <c r="CT25" s="114"/>
     </row>
     <row r="26" spans="1:98" ht="13.5" customHeight="1">
       <c r="A26" s="12"/>
@@ -32501,7 +32555,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId45"/>
-  <legacyDrawing r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -32509,8 +32562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BY984"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -32532,74 +32585,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" s="16" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
     </row>
     <row r="2" spans="1:77" s="16" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
@@ -32680,12 +32733,12 @@
       <c r="I3" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -32880,12 +32933,12 @@
       <c r="I5" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="137"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -33095,7 +33148,7 @@
         <v>3229159196</v>
       </c>
     </row>
-    <row r="8" spans="1:77" s="66" customFormat="1" ht="39.75" customHeight="1">
+    <row r="8" spans="1:77" s="65" customFormat="1" ht="39.75" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>282</v>
       </c>
@@ -33123,12 +33176,12 @@
       <c r="I8" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="135" t="s">
         <v>286</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="137"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -33192,7 +33245,7 @@
       <c r="BV8" s="12"/>
       <c r="BW8" s="12"/>
       <c r="BX8" s="12"/>
-      <c r="BY8" s="65"/>
+      <c r="BY8" s="64"/>
     </row>
     <row r="9" spans="1:77" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A9" s="20" t="s">
@@ -33554,17 +33607,17 @@
       <c r="B16" s="20">
         <v>1117504709</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>333</v>
+      <c r="C16" s="142" t="s">
+        <v>415</v>
       </c>
       <c r="D16" s="20">
         <v>3125478510</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>335</v>
       </c>
       <c r="G16" s="20">
         <v>3363131</v>
@@ -33573,10 +33626,10 @@
         <v>170</v>
       </c>
       <c r="I16" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="K16" s="20">
         <v>17703345</v>
@@ -33595,16 +33648,16 @@
         <v>17676623</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D17" s="27">
         <v>3144235777</v>
       </c>
       <c r="E17" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>339</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>340</v>
       </c>
       <c r="G17" s="27">
         <v>3394574</v>
@@ -33613,16 +33666,16 @@
         <v>312</v>
       </c>
       <c r="I17" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>341</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>342</v>
       </c>
       <c r="K17" s="27">
         <v>25731997</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M17" s="27">
         <v>315315077</v>
@@ -33630,14 +33683,14 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="39" customHeight="1">
-      <c r="A18" s="63" t="s">
-        <v>344</v>
+      <c r="A18" s="62" t="s">
+        <v>343</v>
       </c>
       <c r="B18" s="27">
         <v>1083454.93</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D18" s="27">
         <v>3224000804</v>
@@ -33646,7 +33699,7 @@
         <v>219</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G18" s="27">
         <v>3383901</v>
@@ -33658,13 +33711,13 @@
         <v>46303</v>
       </c>
       <c r="J18" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="L18" s="42" t="s">
         <v>348</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>349</v>
       </c>
       <c r="M18" s="27">
         <v>3206463753</v>
@@ -33673,13 +33726,13 @@
     </row>
     <row r="19" spans="1:14" ht="42" customHeight="1">
       <c r="A19" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19" s="27">
         <v>1116207663</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D19" s="27">
         <v>3192502204</v>
@@ -33688,16 +33741,16 @@
         <v>270</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G19" s="27">
         <v>3396787</v>
       </c>
       <c r="H19" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>352</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>353</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -33707,13 +33760,13 @@
     </row>
     <row r="20" spans="1:14" ht="41.25" customHeight="1">
       <c r="A20" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="63">
+        <v>1117808823</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>354</v>
-      </c>
-      <c r="B20" s="64">
-        <v>1117808823</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>355</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
@@ -33726,17 +33779,17 @@
         <v>3398491</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I20" s="27" t="s">
         <v>236</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M20" s="27">
         <v>3107927168</v>
@@ -33745,22 +33798,22 @@
     </row>
     <row r="21" spans="1:14" ht="37.5" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B21" s="39">
         <v>1117823999</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D21" s="20">
         <v>3215090622</v>
       </c>
       <c r="E21" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>361</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>362</v>
       </c>
       <c r="G21" s="20">
         <v>3398320</v>
@@ -33769,16 +33822,16 @@
         <v>312</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K21" s="20">
         <v>1117813931</v>
       </c>
       <c r="L21" s="58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M21" s="20">
         <v>3102779871</v>
@@ -34839,20 +34892,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="A1" s="138" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
       <c r="A2" s="22" t="s">
@@ -34883,10 +34936,10 @@
         <v>109</v>
       </c>
       <c r="J2" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>367</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>2</v>
@@ -34895,19 +34948,19 @@
     </row>
     <row r="3" spans="1:13" ht="28.5" customHeight="1">
       <c r="A3" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="33" t="s">
         <v>369</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>370</v>
       </c>
       <c r="D3" s="20">
         <v>3219068824</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F3" s="20">
         <v>3069934</v>
@@ -34926,19 +34979,19 @@
     </row>
     <row r="4" spans="1:13" ht="36.75" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="20">
         <v>1098637995</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="20">
         <v>3124775889</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F4" s="20">
         <v>3336020</v>
@@ -34950,13 +35003,13 @@
         <v>46302</v>
       </c>
       <c r="I4" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="34" t="s">
         <v>376</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>377</v>
       </c>
       <c r="L4" s="20">
         <v>3132146706</v>
@@ -34992,7 +35045,7 @@
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F6" s="20">
         <v>3388627</v>
@@ -35015,7 +35068,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F7" s="20">
         <v>3388628</v>
@@ -35034,13 +35087,13 @@
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="20">
         <v>1010021128</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="20">
         <v>3005663986</v>
@@ -35058,13 +35111,13 @@
         <v>46730</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J8" s="20">
         <v>1022334170</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L8" s="20">
         <v>3222576150</v>
@@ -35077,7 +35130,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F9" s="20">
         <v>3388630</v>
@@ -36120,7 +36173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -36138,17 +36191,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="132" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="A1" s="140" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -36167,7 +36220,7 @@
         <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -36176,184 +36229,184 @@
         <v>8</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1">
       <c r="A3" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="124" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="138" t="s">
+      <c r="D3" s="123">
+        <v>32237586009</v>
+      </c>
+      <c r="E3" s="126" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="137">
-        <v>32237586009</v>
-      </c>
-      <c r="E3" s="140" t="s">
+      <c r="F3" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="140" t="s">
+      <c r="G3" s="122" t="s">
         <v>391</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="H3" s="123" t="s">
         <v>392</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="I3" s="127" t="s">
         <v>393</v>
-      </c>
-      <c r="I3" s="141" t="s">
-        <v>394</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1">
       <c r="A4" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="122">
+        <v>1004417452</v>
+      </c>
+      <c r="C4" s="124" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="136">
-        <v>1004417452</v>
-      </c>
-      <c r="C4" s="138" t="s">
+      <c r="D4" s="123">
+        <v>3194494992</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="123" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="137">
-        <v>3194494992</v>
-      </c>
-      <c r="E4" s="140" t="s">
-        <v>390</v>
-      </c>
-      <c r="F4" s="137" t="s">
+      <c r="G4" s="123">
+        <v>2995479</v>
+      </c>
+      <c r="H4" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="127" t="s">
         <v>397</v>
-      </c>
-      <c r="G4" s="137">
-        <v>2995479</v>
-      </c>
-      <c r="H4" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="141" t="s">
-        <v>398</v>
       </c>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1">
       <c r="A5" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="123">
+        <v>40075260</v>
+      </c>
+      <c r="C5" s="125" t="s">
         <v>399</v>
       </c>
-      <c r="B5" s="137">
-        <v>40075260</v>
-      </c>
-      <c r="C5" s="139" t="s">
+      <c r="D5" s="125">
+        <v>3012032392</v>
+      </c>
+      <c r="E5" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="139">
-        <v>3012032392</v>
-      </c>
-      <c r="E5" s="140" t="s">
+      <c r="F5" s="126" t="s">
         <v>401</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="G5" s="123">
+        <v>2926293</v>
+      </c>
+      <c r="H5" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="128" t="s">
         <v>402</v>
-      </c>
-      <c r="G5" s="137">
-        <v>2926293</v>
-      </c>
-      <c r="H5" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="142" t="s">
-        <v>403</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="36" customHeight="1">
       <c r="A6" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="123">
+        <v>40613766</v>
+      </c>
+      <c r="C6" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="137">
-        <v>40613766</v>
-      </c>
-      <c r="C6" s="138" t="s">
+      <c r="D6" s="123">
+        <v>3214301448</v>
+      </c>
+      <c r="E6" s="123" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="137">
-        <v>3214301448</v>
-      </c>
-      <c r="E6" s="137" t="s">
+      <c r="F6" s="126" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="140" t="s">
+      <c r="G6" s="123">
+        <v>3172885</v>
+      </c>
+      <c r="H6" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="123" t="s">
         <v>407</v>
-      </c>
-      <c r="G6" s="137">
-        <v>3172885</v>
-      </c>
-      <c r="H6" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="137" t="s">
-        <v>408</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1">
       <c r="A7" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="123">
+        <v>1081423164</v>
+      </c>
+      <c r="C7" s="124" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="137">
-        <v>1081423164</v>
-      </c>
-      <c r="C7" s="138" t="s">
+      <c r="D7" s="123">
+        <v>3170507727</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="126" t="s">
         <v>410</v>
       </c>
-      <c r="D7" s="137">
-        <v>3170507727</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="140" t="s">
+      <c r="G7" s="123">
+        <v>3172835</v>
+      </c>
+      <c r="H7" s="123" t="s">
+        <v>392</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A8" s="120" t="s">
         <v>411</v>
       </c>
-      <c r="G7" s="137">
-        <v>3172835</v>
-      </c>
-      <c r="H7" s="137" t="s">
-        <v>393</v>
-      </c>
-      <c r="I7" s="137" t="s">
-        <v>403</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="B8" s="123">
+        <v>53038319</v>
+      </c>
+      <c r="C8" s="125" t="s">
         <v>412</v>
       </c>
-      <c r="B8" s="137">
-        <v>53038319</v>
-      </c>
-      <c r="C8" s="139" t="s">
+      <c r="D8" s="123">
+        <v>3143600429</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="126" t="s">
         <v>413</v>
       </c>
-      <c r="D8" s="137">
-        <v>3143600429</v>
-      </c>
-      <c r="E8" s="137" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" s="140" t="s">
+      <c r="G8" s="123">
+        <v>3064087</v>
+      </c>
+      <c r="H8" s="123" t="s">
+        <v>392</v>
+      </c>
+      <c r="I8" s="128" t="s">
         <v>414</v>
-      </c>
-      <c r="G8" s="137">
-        <v>3064087</v>
-      </c>
-      <c r="H8" s="137" t="s">
-        <v>393</v>
-      </c>
-      <c r="I8" s="142" t="s">
-        <v>415</v>
       </c>
       <c r="J8" s="12"/>
     </row>

--- a/database/voceros.xlsx
+++ b/database/voceros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\YanguasEjercicios\senapre\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA3328-1BDA-42F2-97B3-0E0ADE566340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86226493-F304-47DE-B7E3-0B202D12BFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VOCEROS JORNADA DIURNA " sheetId="2" r:id="rId1"/>
@@ -2076,6 +2076,9 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2114,9 +2117,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC979"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -4041,7 +4041,7 @@
       <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="39">
         <v>17658004</v>
       </c>
       <c r="D4" s="38" t="s">
@@ -13401,22 +13401,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="16" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
@@ -14778,12 +14778,12 @@
       <c r="J12" s="88">
         <v>45937</v>
       </c>
-      <c r="K12" s="129" t="s">
+      <c r="K12" s="130" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="132"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
@@ -32562,7 +32562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BY984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -32585,21 +32585,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" s="16" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
     </row>
     <row r="2" spans="1:77" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="66" t="s">
@@ -32733,12 +32733,12 @@
       <c r="I3" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -32933,12 +32933,12 @@
       <c r="I5" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="138"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -33176,12 +33176,12 @@
       <c r="I8" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="138"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -33607,7 +33607,7 @@
       <c r="B16" s="20">
         <v>1117504709</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="129" t="s">
         <v>415</v>
       </c>
       <c r="D16" s="20">
@@ -34892,20 +34892,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
       <c r="A2" s="22" t="s">
@@ -36191,17 +36191,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="8" t="s">
